--- a/backend/results/Munjal/Crank Case _Blow Hole.xlsx
+++ b/backend/results/Munjal/Crank Case _Blow Hole.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="73">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>shift</t>
+  </si>
+  <si>
+    <t>volatile_matter</t>
+  </si>
+  <si>
+    <t>permeability</t>
+  </si>
+  <si>
+    <t>moisture</t>
+  </si>
+  <si>
+    <t>compactibility</t>
   </si>
   <si>
     <t>active_clay</t>
@@ -28,22 +40,16 @@
     <t>loi</t>
   </si>
   <si>
-    <t>compactibility</t>
-  </si>
-  <si>
-    <t>moisture</t>
-  </si>
-  <si>
-    <t>permeability</t>
-  </si>
-  <si>
-    <t>volatile_matter</t>
-  </si>
-  <si>
     <t>Blow Hole %</t>
   </si>
   <si>
-    <t>loi_bins</t>
+    <t>volatile_matter_bins</t>
+  </si>
+  <si>
+    <t>permeability_bins</t>
+  </si>
+  <si>
+    <t>moisture_bins</t>
   </si>
   <si>
     <t>compactibility_bins</t>
@@ -52,16 +58,7 @@
     <t>active_clay_bins</t>
   </si>
   <si>
-    <t>moisture_bins</t>
-  </si>
-  <si>
-    <t>permeability_bins</t>
-  </si>
-  <si>
-    <t>volatile_matter_bins</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>loi_bins</t>
   </si>
   <si>
     <t>B</t>
@@ -70,10 +67,151 @@
     <t>C</t>
   </si>
   <si>
-    <t>[2.599, 2.606)</t>
+    <t>A</t>
   </si>
   <si>
-    <t>[2.612, 2.618)</t>
+    <t>[2.214, 2.221)</t>
+  </si>
+  <si>
+    <t>[2.208, 2.214)</t>
+  </si>
+  <si>
+    <t>[2.176, 2.182)</t>
+  </si>
+  <si>
+    <t>[2.182, 2.189)</t>
+  </si>
+  <si>
+    <t>[2.201, 2.208)</t>
+  </si>
+  <si>
+    <t>[2.189, 2.195)</t>
+  </si>
+  <si>
+    <t>[2.221, 2.227)</t>
+  </si>
+  <si>
+    <t>[2.195, 2.201)</t>
+  </si>
+  <si>
+    <t>[2.234, 2.24)</t>
+  </si>
+  <si>
+    <t>[2.169, 2.176)</t>
+  </si>
+  <si>
+    <t>[2.227, 2.234)</t>
+  </si>
+  <si>
+    <t>[2.163, 2.169)</t>
+  </si>
+  <si>
+    <t>[2.156, 2.163)</t>
+  </si>
+  <si>
+    <t>[135.0, 138.0)</t>
+  </si>
+  <si>
+    <t>[138.0, 141.0)</t>
+  </si>
+  <si>
+    <t>[144.0, 147.0)</t>
+  </si>
+  <si>
+    <t>[141.0, 144.0)</t>
+  </si>
+  <si>
+    <t>[147.0, 150.03)</t>
+  </si>
+  <si>
+    <t>[132.0, 135.0)</t>
+  </si>
+  <si>
+    <t>[129.0, 132.0)</t>
+  </si>
+  <si>
+    <t>[2.593, 2.602)</t>
+  </si>
+  <si>
+    <t>[2.631, 2.64)</t>
+  </si>
+  <si>
+    <t>[2.612, 2.621)</t>
+  </si>
+  <si>
+    <t>[2.583, 2.593)</t>
+  </si>
+  <si>
+    <t>[2.621, 2.631)</t>
+  </si>
+  <si>
+    <t>[2.602, 2.612)</t>
+  </si>
+  <si>
+    <t>[2.46, 2.469)</t>
+  </si>
+  <si>
+    <t>[2.574, 2.583)</t>
+  </si>
+  <si>
+    <t>[2.564, 2.574)</t>
+  </si>
+  <si>
+    <t>[36.071, 36.429)</t>
+  </si>
+  <si>
+    <t>[35.0, 35.357)</t>
+  </si>
+  <si>
+    <t>[35.357, 35.714)</t>
+  </si>
+  <si>
+    <t>[34.286, 34.643)</t>
+  </si>
+  <si>
+    <t>[34.643, 35.0)</t>
+  </si>
+  <si>
+    <t>[36.786, 37.143)</t>
+  </si>
+  <si>
+    <t>[35.714, 36.071)</t>
+  </si>
+  <si>
+    <t>[36.429, 36.786)</t>
+  </si>
+  <si>
+    <t>[8.692, 8.707)</t>
+  </si>
+  <si>
+    <t>[8.707, 8.722)</t>
+  </si>
+  <si>
+    <t>[8.722, 8.736)</t>
+  </si>
+  <si>
+    <t>[8.736, 8.751)</t>
+  </si>
+  <si>
+    <t>[8.678, 8.692)</t>
+  </si>
+  <si>
+    <t>[8.663, 8.678)</t>
+  </si>
+  <si>
+    <t>[8.649, 8.663)</t>
+  </si>
+  <si>
+    <t>[8.62, 8.634)</t>
+  </si>
+  <si>
+    <t>[8.634, 8.649)</t>
+  </si>
+  <si>
+    <t>[2.644, 2.65)</t>
+  </si>
+  <si>
+    <t>[2.637, 2.644)</t>
   </si>
   <si>
     <t>[2.618, 2.625)</t>
@@ -82,187 +220,19 @@
     <t>[2.625, 2.631)</t>
   </si>
   <si>
+    <t>[2.631, 2.637)</t>
+  </si>
+  <si>
     <t>[2.606, 2.612)</t>
   </si>
   <si>
-    <t>[2.593, 2.599)</t>
+    <t>[2.599, 2.606)</t>
   </si>
   <si>
-    <t>[2.631, 2.637)</t>
+    <t>[2.612, 2.618)</t>
   </si>
   <si>
-    <t>[2.637, 2.644)</t>
-  </si>
-  <si>
-    <t>[2.644, 2.65)</t>
-  </si>
-  <si>
-    <t>[33.75, 34.167)</t>
-  </si>
-  <si>
-    <t>[35.0, 35.417)</t>
-  </si>
-  <si>
-    <t>[35.417, 35.833)</t>
-  </si>
-  <si>
-    <t>[35.833, 36.25)</t>
-  </si>
-  <si>
-    <t>[36.25, 36.667)</t>
-  </si>
-  <si>
-    <t>[34.167, 34.583)</t>
-  </si>
-  <si>
-    <t>[34.583, 35.0)</t>
-  </si>
-  <si>
-    <t>[32.917, 33.333)</t>
-  </si>
-  <si>
-    <t>[33.333, 33.75)</t>
-  </si>
-  <si>
-    <t>[37.083, 37.505)</t>
-  </si>
-  <si>
-    <t>[32.5, 32.917)</t>
-  </si>
-  <si>
-    <t>[8.693, 8.708)</t>
-  </si>
-  <si>
-    <t>[8.664, 8.679)</t>
-  </si>
-  <si>
-    <t>[8.679, 8.693)</t>
-  </si>
-  <si>
-    <t>[8.708, 8.722)</t>
-  </si>
-  <si>
-    <t>[8.65, 8.664)</t>
-  </si>
-  <si>
-    <t>[8.636, 8.65)</t>
-  </si>
-  <si>
-    <t>[8.621, 8.636)</t>
-  </si>
-  <si>
-    <t>[8.607, 8.621)</t>
-  </si>
-  <si>
-    <t>[8.751, 8.766)</t>
-  </si>
-  <si>
-    <t>[8.722, 8.737)</t>
-  </si>
-  <si>
-    <t>[8.737, 8.751)</t>
-  </si>
-  <si>
-    <t>[8.766, 8.78)</t>
-  </si>
-  <si>
-    <t>[2.595, 2.604)</t>
-  </si>
-  <si>
-    <t>[2.632, 2.641)</t>
-  </si>
-  <si>
-    <t>[2.622, 2.632)</t>
-  </si>
-  <si>
-    <t>[2.568, 2.577)</t>
-  </si>
-  <si>
-    <t>[2.604, 2.613)</t>
-  </si>
-  <si>
-    <t>[2.586, 2.595)</t>
-  </si>
-  <si>
-    <t>[2.613, 2.622)</t>
-  </si>
-  <si>
-    <t>[2.549, 2.558)</t>
-  </si>
-  <si>
-    <t>[2.577, 2.586)</t>
-  </si>
-  <si>
-    <t>[2.558, 2.568)</t>
-  </si>
-  <si>
-    <t>[2.641, 2.65)</t>
-  </si>
-  <si>
-    <t>[2.54, 2.549)</t>
-  </si>
-  <si>
-    <t>[138.462, 141.538)</t>
-  </si>
-  <si>
-    <t>[144.615, 147.692)</t>
-  </si>
-  <si>
-    <t>[132.308, 135.385)</t>
-  </si>
-  <si>
-    <t>[141.538, 144.615)</t>
-  </si>
-  <si>
-    <t>[129.231, 132.308)</t>
-  </si>
-  <si>
-    <t>[135.385, 138.462)</t>
-  </si>
-  <si>
-    <t>[120.0, 123.077)</t>
-  </si>
-  <si>
-    <t>[123.077, 126.154)</t>
-  </si>
-  <si>
-    <t>[126.154, 129.231)</t>
-  </si>
-  <si>
-    <t>[2.156, 2.163)</t>
-  </si>
-  <si>
-    <t>[2.189, 2.195)</t>
-  </si>
-  <si>
-    <t>[2.195, 2.201)</t>
-  </si>
-  <si>
-    <t>[2.169, 2.176)</t>
-  </si>
-  <si>
-    <t>[2.176, 2.182)</t>
-  </si>
-  <si>
-    <t>[2.182, 2.189)</t>
-  </si>
-  <si>
-    <t>[2.15, 2.156)</t>
-  </si>
-  <si>
-    <t>[2.201, 2.208)</t>
-  </si>
-  <si>
-    <t>[2.208, 2.214)</t>
-  </si>
-  <si>
-    <t>[2.163, 2.169)</t>
-  </si>
-  <si>
-    <t>[2.214, 2.221)</t>
-  </si>
-  <si>
-    <t>[2.234, 2.24)</t>
+    <t>[2.587, 2.593)</t>
   </si>
 </sst>
 </file>
@@ -624,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P145"/>
+  <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,49 +652,49 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45691</v>
+        <v>45659</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2">
+        <v>2.22</v>
+      </c>
+      <c r="E2">
+        <v>136</v>
+      </c>
+      <c r="F2">
+        <v>2.602</v>
+      </c>
+      <c r="G2">
+        <v>36.2</v>
+      </c>
+      <c r="H2">
         <v>8.699999999999999</v>
       </c>
-      <c r="E2">
-        <v>2.6</v>
-      </c>
-      <c r="F2">
-        <v>34</v>
-      </c>
-      <c r="G2">
-        <v>2.6</v>
-      </c>
-      <c r="H2">
-        <v>140</v>
-      </c>
       <c r="I2">
-        <v>2.16</v>
+        <v>2.65</v>
       </c>
       <c r="J2">
-        <v>4.264310411064157</v>
+        <v>0.7640750670241286</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
         <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -732,49 +702,49 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45691</v>
+        <v>45659</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3">
-        <v>8.699999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="E3">
-        <v>2.6</v>
+        <v>140</v>
       </c>
       <c r="F3">
-        <v>35.33333333333334</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="G3">
-        <v>2.603333333333333</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="H3">
-        <v>140</v>
+        <v>8.706666666666665</v>
       </c>
       <c r="I3">
-        <v>2.16</v>
+        <v>2.64</v>
       </c>
       <c r="J3">
-        <v>0.5069124423963134</v>
+        <v>1.420612813370474</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -782,49 +752,49 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45691</v>
+        <v>45660</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4">
-        <v>8.676666666666668</v>
+        <v>2.21</v>
       </c>
       <c r="E4">
-        <v>2.613333333333333</v>
+        <v>140</v>
       </c>
       <c r="F4">
-        <v>35.66666666666666</v>
+        <v>2.62</v>
       </c>
       <c r="G4">
-        <v>2.633333333333333</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>140</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I4">
-        <v>2.19</v>
+        <v>2.6225</v>
       </c>
       <c r="J4">
-        <v>1.189060642092747</v>
+        <v>0.8133020061449485</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -832,49 +802,49 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45692</v>
+        <v>45660</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5">
-        <v>8.68</v>
+        <v>2.18</v>
       </c>
       <c r="E5">
-        <v>2.62</v>
+        <v>137.5</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>2.5875</v>
       </c>
       <c r="G5">
-        <v>2.64</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>140</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I5">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="J5">
-        <v>1.573033707865169</v>
+        <v>1.341334274620544</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -882,49 +852,49 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45692</v>
+        <v>45660</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>8.702500000000001</v>
+        <v>2.21</v>
       </c>
       <c r="E6">
-        <v>2.6225</v>
+        <v>140</v>
       </c>
       <c r="F6">
-        <v>35.25</v>
+        <v>2.625</v>
       </c>
       <c r="G6">
-        <v>2.6025</v>
+        <v>35.5</v>
       </c>
       <c r="H6">
-        <v>145</v>
+        <v>8.725</v>
       </c>
       <c r="I6">
-        <v>2.175</v>
+        <v>2.635</v>
       </c>
       <c r="J6">
-        <v>1.513452914798206</v>
+        <v>0.5251312828207052</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -932,49 +902,49 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45692</v>
+        <v>45661</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7">
-        <v>8.710000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="E7">
-        <v>2.63</v>
+        <v>137.5</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>2.615</v>
       </c>
       <c r="G7">
-        <v>2.63</v>
+        <v>34.5</v>
       </c>
       <c r="H7">
-        <v>135</v>
+        <v>8.737500000000001</v>
       </c>
       <c r="I7">
-        <v>2.19</v>
+        <v>2.62</v>
       </c>
       <c r="J7">
-        <v>1.099438064989006</v>
+        <v>0.860484544695071</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -982,37 +952,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45693</v>
+        <v>45661</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8">
-        <v>8.720000000000001</v>
+        <v>2.188</v>
       </c>
       <c r="E8">
-        <v>2.63</v>
+        <v>138</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>2.592</v>
       </c>
       <c r="G8">
-        <v>2.64</v>
+        <v>34.8</v>
       </c>
       <c r="H8">
-        <v>140</v>
+        <v>8.703999999999999</v>
       </c>
       <c r="I8">
-        <v>2.18</v>
+        <v>2.626</v>
       </c>
       <c r="J8">
-        <v>0.09416195856873823</v>
+        <v>1.233766233766234</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
         <v>41</v>
@@ -1021,10 +991,10 @@
         <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1032,49 +1002,49 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45693</v>
+        <v>45661</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9">
-        <v>8.715</v>
+        <v>2.216666666666667</v>
       </c>
       <c r="E9">
-        <v>2.625</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F9">
-        <v>35.75</v>
+        <v>2.613333333333333</v>
       </c>
       <c r="G9">
-        <v>2.5725</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>140</v>
+        <v>8.713333333333333</v>
       </c>
       <c r="I9">
-        <v>2.19</v>
+        <v>2.65</v>
       </c>
       <c r="J9">
-        <v>2.81068524970964</v>
+        <v>1.017699115044248</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1082,49 +1052,49 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45693</v>
+        <v>45663</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10">
-        <v>8.684000000000001</v>
+        <v>2.203333333333333</v>
       </c>
       <c r="E10">
-        <v>2.608</v>
+        <v>140</v>
       </c>
       <c r="F10">
-        <v>36.6</v>
+        <v>2.61</v>
       </c>
       <c r="G10">
-        <v>2.636</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>142</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I10">
-        <v>2.196</v>
+        <v>2.636666666666667</v>
       </c>
       <c r="J10">
-        <v>2.662422225437708</v>
+        <v>0.4804542476523259</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1132,49 +1102,49 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45694</v>
+        <v>45663</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11">
-        <v>8.715</v>
+        <v>2.19</v>
       </c>
       <c r="E11">
-        <v>2.605</v>
+        <v>140</v>
       </c>
       <c r="F11">
-        <v>35</v>
+        <v>2.625</v>
       </c>
       <c r="G11">
+        <v>35.75</v>
+      </c>
+      <c r="H11">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I11">
         <v>2.61</v>
       </c>
-      <c r="H11">
-        <v>140</v>
-      </c>
-      <c r="I11">
-        <v>2.185</v>
-      </c>
       <c r="J11">
-        <v>1.114488348530902</v>
+        <v>1.092233009708738</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1182,49 +1152,49 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45694</v>
+        <v>45663</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12">
-        <v>8.7075</v>
+        <v>2.226666666666667</v>
       </c>
       <c r="E12">
-        <v>2.6025</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F12">
-        <v>35.25</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="G12">
-        <v>2.6</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="H12">
-        <v>140</v>
+        <v>8.683333333333334</v>
       </c>
       <c r="I12">
-        <v>2.175</v>
+        <v>2.646666666666667</v>
       </c>
       <c r="J12">
-        <v>0.5639439694378752</v>
+        <v>1.60458452722063</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1232,49 +1202,49 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45694</v>
+        <v>45664</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13">
-        <v>8.666666666666666</v>
+        <v>2.215</v>
       </c>
       <c r="E13">
-        <v>2.593333333333333</v>
+        <v>135</v>
       </c>
       <c r="F13">
-        <v>36.33333333333334</v>
+        <v>2.6</v>
       </c>
       <c r="G13">
-        <v>2.623333333333334</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>140</v>
+        <v>8.695</v>
       </c>
       <c r="I13">
-        <v>2.18</v>
+        <v>2.635</v>
       </c>
       <c r="J13">
-        <v>2.769334684228301</v>
+        <v>1.469450889404486</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
         <v>31</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1282,49 +1252,49 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45695</v>
+        <v>45664</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>8.715</v>
+        <v>2.196666666666667</v>
       </c>
       <c r="E14">
-        <v>2.61</v>
+        <v>140</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>2.593333333333333</v>
       </c>
       <c r="G14">
-        <v>2.61</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="H14">
-        <v>135</v>
+        <v>8.686666666666666</v>
       </c>
       <c r="I14">
-        <v>2.16</v>
+        <v>2.62</v>
       </c>
       <c r="J14">
-        <v>1.711026615969582</v>
+        <v>1.991931417044881</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1332,49 +1302,49 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45695</v>
+        <v>45664</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>8.699999999999999</v>
+        <v>2.2375</v>
       </c>
       <c r="E15">
-        <v>2.615</v>
+        <v>137.5</v>
       </c>
       <c r="F15">
-        <v>34.5</v>
+        <v>2.5875</v>
       </c>
       <c r="G15">
-        <v>2.57</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>130</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="I15">
-        <v>2.155</v>
+        <v>2.6425</v>
       </c>
       <c r="J15">
-        <v>0.9785932721712538</v>
+        <v>1.34850400337126</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1382,49 +1352,49 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45695</v>
+        <v>45665</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>8.67</v>
+        <v>2.213333333333333</v>
       </c>
       <c r="E16">
-        <v>2.61</v>
+        <v>140</v>
       </c>
       <c r="F16">
+        <v>2.62</v>
+      </c>
+      <c r="G16">
         <v>35.66666666666666</v>
       </c>
-      <c r="G16">
-        <v>2.636666666666667</v>
-      </c>
       <c r="H16">
-        <v>138</v>
+        <v>8.66</v>
       </c>
       <c r="I16">
-        <v>2.19</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="J16">
-        <v>0.446066504460665</v>
+        <v>1.072124756335283</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1432,49 +1402,49 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45696</v>
+        <v>45665</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>8.684999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="E17">
-        <v>2.62</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F17">
-        <v>34.25</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="G17">
-        <v>2.61</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>132.5</v>
+        <v>8.66</v>
       </c>
       <c r="I17">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="J17">
-        <v>1.911764705882353</v>
+        <v>0.9163802978235968</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1482,49 +1452,49 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45696</v>
+        <v>45665</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>8.680000000000001</v>
+        <v>2.186666666666667</v>
       </c>
       <c r="E18">
-        <v>2.614</v>
+        <v>140</v>
       </c>
       <c r="F18">
-        <v>34.6</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="G18">
-        <v>2.596</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H18">
-        <v>130</v>
+        <v>8.696666666666665</v>
       </c>
       <c r="I18">
-        <v>2.178</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="J18">
-        <v>1.24777183600713</v>
+        <v>1.026490066225165</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1532,49 +1502,49 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45696</v>
+        <v>45666</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>8.696666666666667</v>
+        <v>2.176666666666667</v>
       </c>
       <c r="E19">
-        <v>2.613333333333333</v>
+        <v>140</v>
       </c>
       <c r="F19">
-        <v>36.33333333333334</v>
+        <v>2.626666666666667</v>
       </c>
       <c r="G19">
-        <v>2.64</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>140</v>
+        <v>8.683333333333332</v>
       </c>
       <c r="I19">
-        <v>2.193333333333333</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="J19">
-        <v>0.9643718189124029</v>
+        <v>0.9305873379099924</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1582,49 +1552,49 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45698</v>
+        <v>45666</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20">
+        <v>2.2025</v>
+      </c>
+      <c r="E20">
+        <v>140</v>
+      </c>
+      <c r="F20">
+        <v>2.6175</v>
+      </c>
+      <c r="G20">
+        <v>35.75</v>
+      </c>
+      <c r="H20">
         <v>8.65</v>
       </c>
-      <c r="E20">
-        <v>2.6</v>
-      </c>
-      <c r="F20">
-        <v>36.5</v>
-      </c>
-      <c r="G20">
-        <v>2.64</v>
-      </c>
-      <c r="H20">
-        <v>130</v>
-      </c>
       <c r="I20">
-        <v>2.2</v>
+        <v>2.605</v>
       </c>
       <c r="J20">
-        <v>3.472014366956001</v>
+        <v>4.887218045112782</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1632,49 +1602,49 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45698</v>
+        <v>45666</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>8.643333333333333</v>
+        <v>2.2</v>
       </c>
       <c r="E21">
-        <v>2.616666666666667</v>
+        <v>137.5</v>
       </c>
       <c r="F21">
-        <v>34.66666666666666</v>
+        <v>2.5775</v>
       </c>
       <c r="G21">
-        <v>2.593333333333333</v>
+        <v>35.25</v>
       </c>
       <c r="H21">
-        <v>136.6666666666667</v>
+        <v>8.6675</v>
       </c>
       <c r="I21">
-        <v>2.183333333333333</v>
+        <v>2.6275</v>
       </c>
       <c r="J21">
-        <v>1.977866729456087</v>
+        <v>0.8469324519727329</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
         <v>67</v>
-      </c>
-      <c r="P21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1682,49 +1652,49 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45699</v>
+        <v>45667</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>8.664999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="E22">
-        <v>2.6125</v>
+        <v>145</v>
       </c>
       <c r="F22">
-        <v>34.5</v>
+        <v>2.63</v>
       </c>
       <c r="G22">
-        <v>2.605</v>
+        <v>36.25</v>
       </c>
       <c r="H22">
-        <v>137.5</v>
+        <v>8.67</v>
       </c>
       <c r="I22">
-        <v>2.1725</v>
+        <v>2.64</v>
       </c>
       <c r="J22">
-        <v>3.228228228228228</v>
+        <v>1.672445441566388</v>
       </c>
       <c r="K22" t="s">
         <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1732,49 +1702,49 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45699</v>
+        <v>45667</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>8.626666666666667</v>
+        <v>2.205</v>
       </c>
       <c r="E23">
-        <v>2.606666666666667</v>
+        <v>140</v>
       </c>
       <c r="F23">
-        <v>35.66666666666666</v>
+        <v>2.64</v>
       </c>
       <c r="G23">
-        <v>2.616666666666667</v>
+        <v>36.5</v>
       </c>
       <c r="H23">
-        <v>140</v>
+        <v>8.675000000000001</v>
       </c>
       <c r="I23">
-        <v>2.193333333333333</v>
+        <v>2.6</v>
       </c>
       <c r="J23">
-        <v>4.855842185128983</v>
+        <v>2.164137155705452</v>
       </c>
       <c r="K23" t="s">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1782,49 +1752,49 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45699</v>
+        <v>45667</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>8.633333333333335</v>
+        <v>2.222</v>
       </c>
       <c r="E24">
-        <v>2.603333333333333</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>36</v>
+        <v>2.598</v>
       </c>
       <c r="G24">
-        <v>2.596666666666667</v>
+        <v>35.2</v>
       </c>
       <c r="H24">
-        <v>136.6666666666667</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="I24">
-        <v>2.2</v>
+        <v>2.626</v>
       </c>
       <c r="J24">
-        <v>4.113557358053303</v>
+        <v>2.044470974481421</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s">
         <v>67</v>
-      </c>
-      <c r="P24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1832,49 +1802,49 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45700</v>
+        <v>45668</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>8.653333333333334</v>
+        <v>2.216</v>
       </c>
       <c r="E25">
-        <v>2.63</v>
+        <v>142</v>
       </c>
       <c r="F25">
-        <v>35.33333333333334</v>
+        <v>2.632</v>
       </c>
       <c r="G25">
-        <v>2.62</v>
+        <v>36.4</v>
       </c>
       <c r="H25">
-        <v>140</v>
+        <v>8.691999999999998</v>
       </c>
       <c r="I25">
-        <v>2.186666666666667</v>
+        <v>2.636</v>
       </c>
       <c r="J25">
-        <v>0.6429883649724434</v>
+        <v>0.5969300739056282</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N25" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P25" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1882,49 +1852,49 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45700</v>
+        <v>45668</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>8.663333333333334</v>
+        <v>2.173333333333333</v>
       </c>
       <c r="E26">
-        <v>2.633333333333333</v>
+        <v>141.6666666666667</v>
       </c>
       <c r="F26">
-        <v>35</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="G26">
-        <v>2.616666666666667</v>
+        <v>35.83333333333334</v>
       </c>
       <c r="H26">
-        <v>136.6666666666667</v>
+        <v>8.695</v>
       </c>
       <c r="I26">
-        <v>2.186666666666667</v>
+        <v>2.586666666666666</v>
       </c>
       <c r="J26">
-        <v>2.272727272727273</v>
+        <v>1.804397270659591</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
         <v>42</v>
       </c>
       <c r="N26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="P26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1932,49 +1902,49 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45700</v>
+        <v>45668</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>8.65</v>
+        <v>2.215</v>
       </c>
       <c r="E27">
-        <v>2.6225</v>
+        <v>150</v>
       </c>
       <c r="F27">
-        <v>35.75</v>
+        <v>2.6</v>
       </c>
       <c r="G27">
-        <v>2.6125</v>
+        <v>35.5</v>
       </c>
       <c r="H27">
-        <v>137.5</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="I27">
-        <v>2.1975</v>
+        <v>2.61</v>
       </c>
       <c r="J27">
-        <v>5.213584505173786</v>
+        <v>1.067792401291284</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1982,49 +1952,49 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45701</v>
+        <v>45670</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28">
-        <v>8.66</v>
+        <v>2.215</v>
       </c>
       <c r="E28">
-        <v>2.64</v>
+        <v>145</v>
       </c>
       <c r="F28">
-        <v>34</v>
+        <v>2.575</v>
       </c>
       <c r="G28">
-        <v>2.62</v>
+        <v>34.5</v>
       </c>
       <c r="H28">
-        <v>140</v>
+        <v>8.695</v>
       </c>
       <c r="I28">
-        <v>2.19</v>
+        <v>2.635</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.070281840884766</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2032,49 +2002,49 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>45701</v>
+        <v>45670</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29">
-        <v>8.66</v>
+        <v>2.22</v>
       </c>
       <c r="E29">
-        <v>2.63</v>
+        <v>148</v>
       </c>
       <c r="F29">
-        <v>34.33333333333334</v>
+        <v>2.616</v>
       </c>
       <c r="G29">
-        <v>2.586666666666666</v>
+        <v>35.6</v>
       </c>
       <c r="H29">
-        <v>140</v>
+        <v>8.681999999999999</v>
       </c>
       <c r="I29">
-        <v>2.17</v>
+        <v>2.614</v>
       </c>
       <c r="J29">
-        <v>1.534868201534868</v>
+        <v>4.576271186440678</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2082,49 +2052,49 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>45701</v>
+        <v>45671</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30">
-        <v>8.656666666666666</v>
+        <v>2.2025</v>
       </c>
       <c r="E30">
-        <v>2.603333333333333</v>
+        <v>137.5</v>
       </c>
       <c r="F30">
-        <v>34.66666666666666</v>
+        <v>2.61</v>
       </c>
       <c r="G30">
-        <v>2.61</v>
+        <v>34.75</v>
       </c>
       <c r="H30">
-        <v>140</v>
+        <v>8.695</v>
       </c>
       <c r="I30">
-        <v>2.196666666666667</v>
+        <v>2.64</v>
       </c>
       <c r="J30">
-        <v>7.678938220887976</v>
+        <v>1.51877133105802</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P30" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2132,49 +2102,49 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45702</v>
+        <v>45671</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31">
-        <v>8.66</v>
+        <v>2.192</v>
       </c>
       <c r="E31">
-        <v>2.615</v>
+        <v>138</v>
       </c>
       <c r="F31">
-        <v>33</v>
+        <v>2.578</v>
       </c>
       <c r="G31">
-        <v>2.595</v>
+        <v>34.8</v>
       </c>
       <c r="H31">
-        <v>140</v>
+        <v>8.69</v>
       </c>
       <c r="I31">
-        <v>2.185</v>
+        <v>2.626</v>
       </c>
       <c r="J31">
-        <v>1.971326164874552</v>
+        <v>1.926507313592579</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P31" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2182,49 +2152,49 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>45702</v>
+        <v>45671</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32">
-        <v>8.65</v>
+        <v>2.195</v>
       </c>
       <c r="E32">
-        <v>2.62</v>
+        <v>135</v>
       </c>
       <c r="F32">
-        <v>33.66666666666666</v>
+        <v>2.635</v>
       </c>
       <c r="G32">
-        <v>2.61</v>
+        <v>36.25</v>
       </c>
       <c r="H32">
-        <v>140</v>
+        <v>8.672499999999999</v>
       </c>
       <c r="I32">
-        <v>2.18</v>
+        <v>2.6125</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.313210505684046</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2232,49 +2202,49 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>45702</v>
+        <v>45672</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33">
-        <v>8.65</v>
+        <v>2.195</v>
       </c>
       <c r="E33">
-        <v>2.6</v>
+        <v>137.5</v>
       </c>
       <c r="F33">
-        <v>34.5</v>
+        <v>2.625</v>
       </c>
       <c r="G33">
-        <v>2.62</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>140</v>
+        <v>8.695</v>
       </c>
       <c r="I33">
-        <v>2.2</v>
+        <v>2.605</v>
       </c>
       <c r="J33">
-        <v>2.794903411426223</v>
+        <v>0.624783061437001</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M33" t="s">
         <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2282,49 +2252,49 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>45703</v>
+        <v>45672</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34">
-        <v>8.655000000000001</v>
+        <v>2.2225</v>
       </c>
       <c r="E34">
-        <v>2.61</v>
+        <v>140</v>
       </c>
       <c r="F34">
-        <v>34</v>
+        <v>2.5825</v>
       </c>
       <c r="G34">
-        <v>2.6</v>
+        <v>35.75</v>
       </c>
       <c r="H34">
-        <v>140</v>
+        <v>8.6625</v>
       </c>
       <c r="I34">
-        <v>2.185</v>
+        <v>2.6475</v>
       </c>
       <c r="J34">
-        <v>2.272727272727273</v>
+        <v>2.281035239070039</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2332,49 +2302,49 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>45703</v>
+        <v>45672</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35">
-        <v>8.640000000000001</v>
+        <v>2.2275</v>
       </c>
       <c r="E35">
-        <v>2.61</v>
+        <v>140</v>
       </c>
       <c r="F35">
-        <v>34.8</v>
+        <v>2.625</v>
       </c>
       <c r="G35">
-        <v>2.608</v>
+        <v>35.25</v>
       </c>
       <c r="H35">
-        <v>142</v>
+        <v>8.6275</v>
       </c>
       <c r="I35">
-        <v>2.17</v>
+        <v>2.6</v>
       </c>
       <c r="J35">
-        <v>1.612361437688949</v>
+        <v>0.9594882729211087</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2382,49 +2352,49 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>45703</v>
+        <v>45673</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36">
-        <v>8.65</v>
+        <v>2.203333333333334</v>
       </c>
       <c r="E36">
-        <v>2.6</v>
+        <v>140</v>
       </c>
       <c r="F36">
-        <v>34</v>
+        <v>2.613333333333333</v>
       </c>
       <c r="G36">
-        <v>2.61</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="H36">
-        <v>140</v>
+        <v>8.653333333333334</v>
       </c>
       <c r="I36">
-        <v>2.2</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="J36">
-        <v>0.8517887563884157</v>
+        <v>1.943462897526502</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2432,49 +2402,49 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>45704</v>
+        <v>45673</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37">
-        <v>8.664999999999999</v>
+        <v>2.192</v>
       </c>
       <c r="E37">
-        <v>2.635</v>
+        <v>138</v>
       </c>
       <c r="F37">
-        <v>34</v>
+        <v>2.596</v>
       </c>
       <c r="G37">
-        <v>2.605</v>
+        <v>35.8</v>
       </c>
       <c r="H37">
-        <v>135</v>
+        <v>8.648</v>
       </c>
       <c r="I37">
-        <v>2.19</v>
+        <v>2.626</v>
       </c>
       <c r="J37">
-        <v>0.0437062937062937</v>
+        <v>1.891944606982641</v>
       </c>
       <c r="K37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P37" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2482,49 +2452,49 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45704</v>
+        <v>45673</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38">
-        <v>8.666666666666666</v>
+        <v>2.193333333333333</v>
       </c>
       <c r="E38">
-        <v>2.64</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F38">
-        <v>34.33333333333334</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="G38">
-        <v>2.606666666666667</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H38">
-        <v>140</v>
+        <v>8.636666666666667</v>
       </c>
       <c r="I38">
-        <v>2.196666666666667</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="J38">
-        <v>2.364532019704434</v>
+        <v>0.7414064255223545</v>
       </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2532,49 +2502,49 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>45704</v>
+        <v>45674</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
       </c>
       <c r="D39">
-        <v>8.657500000000001</v>
+        <v>2.1975</v>
       </c>
       <c r="E39">
-        <v>2.615</v>
+        <v>137.5</v>
       </c>
       <c r="F39">
-        <v>35</v>
+        <v>2.62</v>
       </c>
       <c r="G39">
-        <v>2.6</v>
+        <v>34.75</v>
       </c>
       <c r="H39">
-        <v>137.5</v>
+        <v>8.6525</v>
       </c>
       <c r="I39">
-        <v>2.2075</v>
+        <v>2.61</v>
       </c>
       <c r="J39">
-        <v>3.787389713793845</v>
+        <v>0.7196071791398577</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O39" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2582,49 +2552,49 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>45705</v>
+        <v>45674</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40">
-        <v>8.65</v>
+        <v>2.196</v>
       </c>
       <c r="E40">
-        <v>2.6</v>
+        <v>134</v>
       </c>
       <c r="F40">
-        <v>33.5</v>
+        <v>2.594</v>
       </c>
       <c r="G40">
-        <v>2.62</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>140</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="I40">
-        <v>2.2</v>
+        <v>2.642</v>
       </c>
       <c r="J40">
-        <v>0.7684426229508197</v>
+        <v>2.065299924069856</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N40" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P40" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2632,49 +2602,49 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>45705</v>
+        <v>45674</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41">
-        <v>8.655000000000001</v>
+        <v>2.215</v>
       </c>
       <c r="E41">
-        <v>2.625</v>
+        <v>130</v>
       </c>
       <c r="F41">
-        <v>34.75</v>
+        <v>2.63</v>
       </c>
       <c r="G41">
-        <v>2.5525</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>135</v>
+        <v>8.66</v>
       </c>
       <c r="I41">
-        <v>2.185</v>
+        <v>2.635</v>
       </c>
       <c r="J41">
-        <v>2.483974358974359</v>
+        <v>1.609195402298851</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M41" t="s">
         <v>42</v>
       </c>
       <c r="N41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P41" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2682,49 +2652,49 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>45705</v>
+        <v>45675</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42">
-        <v>8.67</v>
+        <v>2.2</v>
       </c>
       <c r="E42">
-        <v>2.63</v>
+        <v>132</v>
       </c>
       <c r="F42">
-        <v>35</v>
+        <v>2.624</v>
       </c>
       <c r="G42">
-        <v>2.62</v>
+        <v>34.6</v>
       </c>
       <c r="H42">
-        <v>140</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="I42">
-        <v>2.19</v>
+        <v>2.628</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>0.7667224817132282</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L42" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N42" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P42" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2732,49 +2702,49 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>45706</v>
+        <v>45675</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43">
-        <v>8.664999999999999</v>
+        <v>2.2025</v>
       </c>
       <c r="E43">
-        <v>2.625</v>
+        <v>135</v>
       </c>
       <c r="F43">
+        <v>2.5875</v>
+      </c>
+      <c r="G43">
         <v>34.5</v>
       </c>
-      <c r="G43">
-        <v>2.575</v>
-      </c>
       <c r="H43">
-        <v>133</v>
+        <v>8.655000000000001</v>
       </c>
       <c r="I43">
-        <v>2.185</v>
+        <v>2.6425</v>
       </c>
       <c r="J43">
-        <v>1.377726750861079</v>
+        <v>1.349188200320146</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P43" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2782,49 +2752,49 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>45706</v>
+        <v>45675</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44">
-        <v>8.640000000000001</v>
+        <v>2.205</v>
       </c>
       <c r="E44">
-        <v>2.64</v>
+        <v>130</v>
       </c>
       <c r="F44">
-        <v>35</v>
+        <v>2.595</v>
       </c>
       <c r="G44">
-        <v>2.555</v>
+        <v>34.5</v>
       </c>
       <c r="H44">
-        <v>135</v>
+        <v>8.635</v>
       </c>
       <c r="I44">
-        <v>2.17</v>
+        <v>2.61</v>
       </c>
       <c r="J44">
-        <v>2.476999292285917</v>
+        <v>0.4211332312404288</v>
       </c>
       <c r="K44" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N44" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2832,49 +2802,49 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>45706</v>
+        <v>45677</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45">
-        <v>8.65</v>
+        <v>2.19</v>
       </c>
       <c r="E45">
-        <v>2.6</v>
+        <v>130</v>
       </c>
       <c r="F45">
-        <v>34</v>
+        <v>2.64</v>
       </c>
       <c r="G45">
-        <v>2.58</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>130</v>
+        <v>8.675000000000001</v>
       </c>
       <c r="I45">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="J45">
-        <v>3.341740226986129</v>
+        <v>0.3838174273858921</v>
       </c>
       <c r="K45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L45" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2882,49 +2852,49 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45707</v>
+        <v>45677</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46">
-        <v>8.657500000000001</v>
+        <v>2.17</v>
       </c>
       <c r="E46">
-        <v>2.6275</v>
+        <v>130</v>
       </c>
       <c r="F46">
-        <v>34</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="G46">
-        <v>2.5925</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>140</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I46">
-        <v>2.1725</v>
+        <v>2.63</v>
       </c>
       <c r="J46">
-        <v>5.749041826362273</v>
+        <v>2.595752405155201</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L46" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M46" t="s">
         <v>42</v>
       </c>
       <c r="N46" t="s">
+        <v>53</v>
+      </c>
+      <c r="O46" t="s">
         <v>55</v>
       </c>
-      <c r="O46" t="s">
-        <v>62</v>
-      </c>
       <c r="P46" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2932,49 +2902,49 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>45707</v>
+        <v>45677</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47">
-        <v>8.655000000000001</v>
+        <v>2.203333333333333</v>
       </c>
       <c r="E47">
-        <v>2.615</v>
+        <v>130</v>
       </c>
       <c r="F47">
-        <v>34.5</v>
+        <v>2.596666666666667</v>
       </c>
       <c r="G47">
-        <v>2.63</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>140</v>
+        <v>8.69</v>
       </c>
       <c r="I47">
-        <v>2.19</v>
+        <v>2.636666666666667</v>
       </c>
       <c r="J47">
-        <v>2.031802120141343</v>
+        <v>1.972963098282791</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P47" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2982,49 +2952,49 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>45707</v>
+        <v>45678</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48">
-        <v>8.657500000000001</v>
+        <v>2.19</v>
       </c>
       <c r="E48">
-        <v>2.6075</v>
+        <v>135</v>
       </c>
       <c r="F48">
-        <v>34.5</v>
+        <v>2.62</v>
       </c>
       <c r="G48">
-        <v>2.5825</v>
+        <v>35.5</v>
       </c>
       <c r="H48">
-        <v>137.5</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I48">
-        <v>2.2025</v>
+        <v>2.61</v>
       </c>
       <c r="J48">
-        <v>3.105882352941177</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N48" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="P48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3032,49 +3002,49 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>45708</v>
+        <v>45678</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
       </c>
       <c r="D49">
-        <v>8.6675</v>
+        <v>2.2025</v>
       </c>
       <c r="E49">
-        <v>2.63</v>
+        <v>132.5</v>
       </c>
       <c r="F49">
+        <v>2.6025</v>
+      </c>
+      <c r="G49">
         <v>34.75</v>
       </c>
-      <c r="G49">
-        <v>2.615</v>
-      </c>
       <c r="H49">
-        <v>142.5</v>
+        <v>8.6625</v>
       </c>
       <c r="I49">
-        <v>2.1775</v>
+        <v>2.6275</v>
       </c>
       <c r="J49">
-        <v>2.173913043478261</v>
+        <v>2.706378348973208</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M49" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P49" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3082,49 +3052,49 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>45708</v>
+        <v>45678</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
       </c>
       <c r="D50">
-        <v>8.657500000000001</v>
+        <v>2.2075</v>
       </c>
       <c r="E50">
-        <v>2.6025</v>
+        <v>140</v>
       </c>
       <c r="F50">
-        <v>34.5</v>
+        <v>2.6</v>
       </c>
       <c r="G50">
-        <v>2.6275</v>
+        <v>35.25</v>
       </c>
       <c r="H50">
-        <v>142.5</v>
+        <v>8.702500000000001</v>
       </c>
       <c r="I50">
-        <v>2.1725</v>
+        <v>2.6475</v>
       </c>
       <c r="J50">
-        <v>4.289456450556647</v>
+        <v>1.154586273252085</v>
       </c>
       <c r="K50" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
         <v>32</v>
       </c>
       <c r="M50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O50" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P50" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3132,49 +3102,49 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>45708</v>
+        <v>45679</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51">
-        <v>8.65</v>
+        <v>2.186666666666667</v>
       </c>
       <c r="E51">
-        <v>2.61</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="F51">
-        <v>35.5</v>
+        <v>2.626666666666667</v>
       </c>
       <c r="G51">
-        <v>2.61</v>
+        <v>35.66666666666666</v>
       </c>
       <c r="H51">
-        <v>140</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I51">
-        <v>2.18</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="J51">
-        <v>2.84789644012945</v>
+        <v>1.705282669138091</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M51" t="s">
         <v>42</v>
       </c>
       <c r="N51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P51" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3182,49 +3152,49 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45709</v>
+        <v>45679</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
       </c>
       <c r="D52">
-        <v>8.65</v>
+        <v>2.166</v>
       </c>
       <c r="E52">
-        <v>2.61</v>
+        <v>134</v>
       </c>
       <c r="F52">
-        <v>34</v>
+        <v>2.614</v>
       </c>
       <c r="G52">
-        <v>2.56</v>
+        <v>35.2</v>
       </c>
       <c r="H52">
-        <v>135</v>
+        <v>8.742000000000001</v>
       </c>
       <c r="I52">
-        <v>2.185</v>
+        <v>2.616</v>
       </c>
       <c r="J52">
-        <v>2.267080745341615</v>
+        <v>2.109541319914844</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L52" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N52" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O52" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P52" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3232,49 +3202,49 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45709</v>
+        <v>45679</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53">
-        <v>8.654</v>
+        <v>2.183333333333333</v>
       </c>
       <c r="E53">
-        <v>2.612</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F53">
-        <v>34.6</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="G53">
-        <v>2.618</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H53">
-        <v>134</v>
+        <v>8.743333333333334</v>
       </c>
       <c r="I53">
-        <v>2.178</v>
+        <v>2.61</v>
       </c>
       <c r="J53">
-        <v>1.941097724230254</v>
+        <v>1.058591826686361</v>
       </c>
       <c r="K53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N53" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O53" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P53" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3282,49 +3252,49 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>45709</v>
+        <v>45680</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
       <c r="D54">
-        <v>8.65</v>
+        <v>2.173333333333333</v>
       </c>
       <c r="E54">
-        <v>2.6</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="F54">
-        <v>35.5</v>
+        <v>2.62</v>
       </c>
       <c r="G54">
-        <v>2.61</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>140</v>
+        <v>8.696666666666667</v>
       </c>
       <c r="I54">
-        <v>2.2</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="J54">
-        <v>1.736111111111111</v>
+        <v>1.341312422616591</v>
       </c>
       <c r="K54" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N54" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O54" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3332,49 +3302,49 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>45710</v>
+        <v>45680</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55">
-        <v>8.640000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="E55">
-        <v>2.63</v>
+        <v>132</v>
       </c>
       <c r="F55">
-        <v>35</v>
+        <v>2.626</v>
       </c>
       <c r="G55">
-        <v>2.58</v>
+        <v>36</v>
       </c>
       <c r="H55">
-        <v>140</v>
+        <v>8.664</v>
       </c>
       <c r="I55">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="J55">
-        <v>0.2581755593803787</v>
+        <v>0.6910788009334051</v>
       </c>
       <c r="K55" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L55" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P55" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3382,49 +3352,49 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>45710</v>
+        <v>45680</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56">
-        <v>8.657500000000001</v>
+        <v>2.196666666666667</v>
       </c>
       <c r="E56">
-        <v>2.6125</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="F56">
-        <v>34.25</v>
+        <v>2.596666666666667</v>
       </c>
       <c r="G56">
-        <v>2.635</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="H56">
-        <v>140</v>
+        <v>8.716666666666667</v>
       </c>
       <c r="I56">
-        <v>2.1975</v>
+        <v>2.626666666666667</v>
       </c>
       <c r="J56">
-        <v>3.667534722222222</v>
+        <v>1.520086862106406</v>
       </c>
       <c r="K56" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M56" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O56" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P56" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3432,49 +3402,49 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>45710</v>
+        <v>45681</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57">
-        <v>8.619999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="E57">
-        <v>2.6</v>
+        <v>130</v>
       </c>
       <c r="F57">
-        <v>34</v>
+        <v>2.626666666666667</v>
       </c>
       <c r="G57">
-        <v>2.57</v>
+        <v>35.66666666666666</v>
       </c>
       <c r="H57">
-        <v>140</v>
+        <v>8.713333333333333</v>
       </c>
       <c r="I57">
-        <v>2.2</v>
+        <v>2.626666666666667</v>
       </c>
       <c r="J57">
-        <v>12.65486725663717</v>
+        <v>1.385390428211587</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L57" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N57" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O57" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P57" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3482,49 +3452,49 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>45711</v>
+        <v>45681</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58">
-        <v>8.629999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="E58">
-        <v>2.61</v>
+        <v>140</v>
       </c>
       <c r="F58">
-        <v>34.5</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="G58">
-        <v>2.59</v>
+        <v>36</v>
       </c>
       <c r="H58">
-        <v>130</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I58">
-        <v>2.19</v>
+        <v>2.6</v>
       </c>
       <c r="J58">
-        <v>2.951388888888889</v>
+        <v>1.331802525832377</v>
       </c>
       <c r="K58" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L58" t="s">
         <v>32</v>
       </c>
       <c r="M58" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O58" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3532,49 +3502,49 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>45712</v>
+        <v>45681</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>8.635</v>
+        <v>2.1925</v>
       </c>
       <c r="E59">
-        <v>2.615</v>
+        <v>135</v>
       </c>
       <c r="F59">
-        <v>34</v>
+        <v>2.59</v>
       </c>
       <c r="G59">
-        <v>2.59</v>
+        <v>35.25</v>
       </c>
       <c r="H59">
-        <v>140</v>
+        <v>8.665000000000001</v>
       </c>
       <c r="I59">
-        <v>2.185</v>
+        <v>2.6025</v>
       </c>
       <c r="J59">
-        <v>2.019260639950295</v>
+        <v>1.976744186046512</v>
       </c>
       <c r="K59" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N59" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P59" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3582,49 +3552,49 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>45712</v>
+        <v>45682</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>8.613333333333332</v>
+        <v>2.17</v>
       </c>
       <c r="E60">
-        <v>2.606666666666667</v>
+        <v>135</v>
       </c>
       <c r="F60">
-        <v>35.33333333333334</v>
+        <v>2.63</v>
       </c>
       <c r="G60">
-        <v>2.606666666666667</v>
+        <v>35.5</v>
       </c>
       <c r="H60">
-        <v>140</v>
+        <v>8.705</v>
       </c>
       <c r="I60">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="J60">
-        <v>1.787234042553191</v>
+        <v>1.533219761499148</v>
       </c>
       <c r="K60" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L60" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N60" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P60" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3632,49 +3602,49 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>45712</v>
+        <v>45682</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>8.643333333333333</v>
+        <v>2.185</v>
       </c>
       <c r="E61">
-        <v>2.64</v>
+        <v>132.5</v>
       </c>
       <c r="F61">
+        <v>2.62</v>
+      </c>
+      <c r="G61">
         <v>36</v>
       </c>
-      <c r="G61">
-        <v>2.583333333333333</v>
-      </c>
       <c r="H61">
-        <v>140</v>
+        <v>8.6875</v>
       </c>
       <c r="I61">
-        <v>2.186666666666667</v>
+        <v>2.6275</v>
       </c>
       <c r="J61">
-        <v>1.524741081703107</v>
+        <v>2.206896551724138</v>
       </c>
       <c r="K61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L61" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N61" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P61" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3682,49 +3652,49 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>45713</v>
+        <v>45682</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>8.609999999999999</v>
+        <v>2.195</v>
       </c>
       <c r="E62">
-        <v>2.62</v>
+        <v>135</v>
       </c>
       <c r="F62">
-        <v>34.5</v>
+        <v>2.5925</v>
       </c>
       <c r="G62">
-        <v>2.59</v>
+        <v>35.75</v>
       </c>
       <c r="H62">
-        <v>140</v>
+        <v>8.702500000000001</v>
       </c>
       <c r="I62">
-        <v>2.18</v>
+        <v>2.6475</v>
       </c>
       <c r="J62">
-        <v>1.57103825136612</v>
+        <v>0.8668242710795903</v>
       </c>
       <c r="K62" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M62" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N62" t="s">
+        <v>53</v>
+      </c>
+      <c r="O62" t="s">
         <v>55</v>
       </c>
-      <c r="O62" t="s">
-        <v>62</v>
-      </c>
       <c r="P62" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3732,49 +3702,49 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>45713</v>
+        <v>45684</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>8.646666666666667</v>
+        <v>2.18</v>
       </c>
       <c r="E63">
-        <v>2.63</v>
+        <v>132.5</v>
       </c>
       <c r="F63">
-        <v>35</v>
+        <v>2.5925</v>
       </c>
       <c r="G63">
-        <v>2.59</v>
+        <v>35.75</v>
       </c>
       <c r="H63">
-        <v>140</v>
+        <v>8.6875</v>
       </c>
       <c r="I63">
-        <v>2.18</v>
+        <v>2.61</v>
       </c>
       <c r="J63">
-        <v>1.151857075693465</v>
+        <v>1.818512456810329</v>
       </c>
       <c r="K63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L63" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3782,49 +3752,49 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>45713</v>
+        <v>45684</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>8.66</v>
+        <v>2.2</v>
       </c>
       <c r="E64">
-        <v>2.65</v>
+        <v>135</v>
       </c>
       <c r="F64">
-        <v>34</v>
+        <v>2.5775</v>
       </c>
       <c r="G64">
-        <v>2.58</v>
+        <v>35.5</v>
       </c>
       <c r="H64">
-        <v>140</v>
+        <v>8.675000000000001</v>
       </c>
       <c r="I64">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="J64">
-        <v>1.293961512939615</v>
+        <v>1.592233009708738</v>
       </c>
       <c r="K64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L64" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M64" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N64" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P64" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3832,49 +3802,49 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>45714</v>
+        <v>45685</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>8.663333333333334</v>
+        <v>2.1975</v>
       </c>
       <c r="E65">
-        <v>2.633333333333333</v>
+        <v>135</v>
       </c>
       <c r="F65">
-        <v>34</v>
+        <v>2.6275</v>
       </c>
       <c r="G65">
-        <v>2.6</v>
+        <v>35.25</v>
       </c>
       <c r="H65">
-        <v>140</v>
+        <v>8.6975</v>
       </c>
       <c r="I65">
-        <v>2.193333333333333</v>
+        <v>2.615</v>
       </c>
       <c r="J65">
-        <v>1.423682409308693</v>
+        <v>1.238660153524075</v>
       </c>
       <c r="K65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L65" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M65" t="s">
         <v>42</v>
       </c>
       <c r="N65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3882,49 +3852,49 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>45714</v>
+        <v>45685</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>8.65</v>
+        <v>2.168</v>
       </c>
       <c r="E66">
-        <v>2.6</v>
+        <v>140</v>
       </c>
       <c r="F66">
-        <v>35.4</v>
+        <v>2.602</v>
       </c>
       <c r="G66">
-        <v>2.62</v>
+        <v>35.6</v>
       </c>
       <c r="H66">
-        <v>140</v>
+        <v>8.724</v>
       </c>
       <c r="I66">
-        <v>2.19</v>
+        <v>2.612</v>
       </c>
       <c r="J66">
-        <v>0.8945686900958466</v>
+        <v>0.7376283846872083</v>
       </c>
       <c r="K66" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L66" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M66" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N66" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3932,49 +3902,49 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>45714</v>
+        <v>45685</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>8.65</v>
+        <v>2.18</v>
       </c>
       <c r="E67">
-        <v>2.635</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F67">
-        <v>35.5</v>
+        <v>2.59</v>
       </c>
       <c r="G67">
-        <v>2.61</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H67">
-        <v>140</v>
+        <v>8.73</v>
       </c>
       <c r="I67">
-        <v>2.195</v>
+        <v>2.63</v>
       </c>
       <c r="J67">
-        <v>3.355550448172834</v>
+        <v>3.537906137184116</v>
       </c>
       <c r="K67" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N67" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O67" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P67" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3982,49 +3952,49 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>45715</v>
+        <v>45686</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D68">
-        <v>8.640000000000001</v>
+        <v>2.176666666666667</v>
       </c>
       <c r="E68">
-        <v>2.62</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F68">
-        <v>34</v>
+        <v>2.613333333333333</v>
       </c>
       <c r="G68">
-        <v>2.58</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H68">
-        <v>140</v>
+        <v>8.69</v>
       </c>
       <c r="I68">
-        <v>2.18</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="J68">
-        <v>2.148148148148148</v>
+        <v>1.973568281938326</v>
       </c>
       <c r="K68" t="s">
         <v>20</v>
       </c>
       <c r="L68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N68" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P68" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4032,49 +4002,49 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>45715</v>
+        <v>45686</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>8.6325</v>
+        <v>2.1625</v>
       </c>
       <c r="E69">
-        <v>2.61</v>
+        <v>140</v>
       </c>
       <c r="F69">
-        <v>35</v>
+        <v>2.605</v>
       </c>
       <c r="G69">
-        <v>2.595</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>140</v>
+        <v>8.7075</v>
       </c>
       <c r="I69">
-        <v>2.185</v>
+        <v>2.6075</v>
       </c>
       <c r="J69">
-        <v>1.542092840283241</v>
+        <v>1.652644230769231</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L69" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O69" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P69" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4082,49 +4052,49 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>45715</v>
+        <v>45686</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>8.606666666666667</v>
+        <v>2.205</v>
       </c>
       <c r="E70">
-        <v>2.613333333333333</v>
+        <v>135</v>
       </c>
       <c r="F70">
-        <v>35</v>
+        <v>2.5825</v>
       </c>
       <c r="G70">
-        <v>2.606666666666667</v>
+        <v>35.5</v>
       </c>
       <c r="H70">
-        <v>130</v>
+        <v>8.69</v>
       </c>
       <c r="I70">
-        <v>2.193333333333333</v>
+        <v>2.6425</v>
       </c>
       <c r="J70">
-        <v>1.364221364221364</v>
+        <v>1.889582648701939</v>
       </c>
       <c r="K70" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M70" t="s">
         <v>45</v>
       </c>
       <c r="N70" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O70" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P70" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4132,49 +4102,49 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>45716</v>
+        <v>45687</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>8.635</v>
+        <v>2.17</v>
       </c>
       <c r="E71">
-        <v>2.625</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="F71">
-        <v>33.5</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="G71">
-        <v>2.585</v>
+        <v>35</v>
       </c>
       <c r="H71">
-        <v>135</v>
+        <v>8.713333333333333</v>
       </c>
       <c r="I71">
-        <v>2.175</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="J71">
-        <v>2.03847258110824</v>
+        <v>0.8305468665731852</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N71" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O71" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P71" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4182,49 +4152,49 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>45716</v>
+        <v>45687</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>8.65</v>
+        <v>2.165</v>
       </c>
       <c r="E72">
-        <v>2.61</v>
+        <v>140</v>
       </c>
       <c r="F72">
-        <v>33.66666666666666</v>
+        <v>2.57</v>
       </c>
       <c r="G72">
-        <v>2.59</v>
+        <v>35.5</v>
       </c>
       <c r="H72">
-        <v>136.6666666666667</v>
+        <v>8.734999999999999</v>
       </c>
       <c r="I72">
-        <v>2.17</v>
+        <v>2.605</v>
       </c>
       <c r="J72">
-        <v>1.335730798869766</v>
+        <v>0.9621839337659431</v>
       </c>
       <c r="K72" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M72" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N72" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O72" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4232,387 +4202,387 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>45716</v>
+        <v>45687</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73">
+        <v>2.19</v>
+      </c>
+      <c r="E73">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="F73">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="G73">
+        <v>36</v>
+      </c>
+      <c r="H73">
         <v>8.69</v>
       </c>
-      <c r="E73">
-        <v>2.65</v>
-      </c>
-      <c r="F73">
-        <v>35</v>
-      </c>
-      <c r="G73">
-        <v>2.593333333333333</v>
-      </c>
-      <c r="H73">
-        <v>136.6666666666667</v>
-      </c>
       <c r="I73">
-        <v>2.21</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="J73">
-        <v>7.777244359097455</v>
+        <v>1.47008547008547</v>
       </c>
       <c r="K73" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L73" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M73" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O73" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P73" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>45717</v>
+        <v>45688</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>8.65</v>
+        <v>2.183333333333333</v>
       </c>
       <c r="E74">
-        <v>2.615</v>
+        <v>140</v>
       </c>
       <c r="F74">
-        <v>37.5</v>
+        <v>2.61</v>
       </c>
       <c r="G74">
-        <v>2.58</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H74">
-        <v>135</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I74">
-        <v>2.18</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="J74">
-        <v>0.8913168487636572</v>
+        <v>2.819107282693813</v>
       </c>
       <c r="K74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N74" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O74" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P74" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" s="2">
-        <v>45717</v>
+        <v>45659</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>8.65</v>
+        <v>2.22</v>
       </c>
       <c r="E75">
-        <v>2.6</v>
+        <v>136</v>
       </c>
       <c r="F75">
-        <v>35</v>
+        <v>2.602</v>
       </c>
       <c r="G75">
-        <v>2.6</v>
+        <v>36.2</v>
       </c>
       <c r="H75">
-        <v>140</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I75">
-        <v>2.19</v>
+        <v>2.65</v>
       </c>
       <c r="J75">
-        <v>2.016806722689076</v>
+        <v>0.7640750670241286</v>
       </c>
       <c r="K75" t="s">
         <v>18</v>
       </c>
       <c r="L75" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M75" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O75" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P75" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="2">
-        <v>45717</v>
+        <v>45659</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76">
-        <v>8.647500000000001</v>
+        <v>2.22</v>
       </c>
       <c r="E76">
-        <v>2.605</v>
+        <v>140</v>
       </c>
       <c r="F76">
-        <v>34</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="G76">
-        <v>2.59</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="H76">
-        <v>132.5</v>
+        <v>8.706666666666665</v>
       </c>
       <c r="I76">
-        <v>2.185</v>
+        <v>2.64</v>
       </c>
       <c r="J76">
-        <v>0.8212749315604224</v>
+        <v>1.420612813370474</v>
       </c>
       <c r="K76" t="s">
         <v>18</v>
       </c>
       <c r="L76" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M76" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N76" t="s">
+        <v>47</v>
+      </c>
+      <c r="O76" t="s">
         <v>55</v>
       </c>
-      <c r="O76" t="s">
-        <v>64</v>
-      </c>
       <c r="P76" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" s="2">
-        <v>45719</v>
+        <v>45660</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>8.67</v>
+        <v>2.21</v>
       </c>
       <c r="E77">
-        <v>2.63</v>
+        <v>140</v>
       </c>
       <c r="F77">
-        <v>34</v>
+        <v>2.62</v>
       </c>
       <c r="G77">
-        <v>2.58</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>130</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I77">
-        <v>2.2</v>
+        <v>2.6225</v>
       </c>
       <c r="J77">
-        <v>2.182347235693502</v>
+        <v>0.8133020061449485</v>
       </c>
       <c r="K77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L77" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N77" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O77" t="s">
+        <v>56</v>
+      </c>
+      <c r="P77" t="s">
         <v>66</v>
-      </c>
-      <c r="P77" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" s="2">
-        <v>45719</v>
+        <v>45660</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>8.66</v>
+        <v>2.18</v>
       </c>
       <c r="E78">
-        <v>2.61</v>
+        <v>137.5</v>
       </c>
       <c r="F78">
-        <v>36</v>
+        <v>2.5875</v>
       </c>
       <c r="G78">
-        <v>2.6225</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>137.5</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I78">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="J78">
-        <v>1.544540229885057</v>
+        <v>1.341334274620544</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N78" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O78" t="s">
+        <v>56</v>
+      </c>
+      <c r="P78" t="s">
         <v>67</v>
-      </c>
-      <c r="P78" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45720</v>
+        <v>45660</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>8.69</v>
+        <v>2.21</v>
       </c>
       <c r="E79">
+        <v>140</v>
+      </c>
+      <c r="F79">
         <v>2.625</v>
       </c>
-      <c r="F79">
-        <v>34.5</v>
-      </c>
       <c r="G79">
-        <v>2.6</v>
+        <v>35.5</v>
       </c>
       <c r="H79">
-        <v>135</v>
+        <v>8.725</v>
       </c>
       <c r="I79">
-        <v>2.17</v>
+        <v>2.635</v>
       </c>
       <c r="J79">
-        <v>4.696132596685083</v>
+        <v>0.5251312828207052</v>
       </c>
       <c r="K79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L79" t="s">
         <v>32</v>
       </c>
       <c r="M79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O79" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P79" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80" s="2">
-        <v>45720</v>
+        <v>45661</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>8.6875</v>
+        <v>2.21</v>
       </c>
       <c r="E80">
-        <v>2.6325</v>
+        <v>137.5</v>
       </c>
       <c r="F80">
-        <v>34</v>
+        <v>2.615</v>
       </c>
       <c r="G80">
-        <v>2.5975</v>
+        <v>34.5</v>
       </c>
       <c r="H80">
-        <v>135</v>
+        <v>8.737500000000001</v>
       </c>
       <c r="I80">
-        <v>2.1825</v>
+        <v>2.62</v>
       </c>
       <c r="J80">
-        <v>2.517289073305671</v>
+        <v>0.860484544695071</v>
       </c>
       <c r="K80" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L80" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M80" t="s">
         <v>40</v>
@@ -4621,992 +4591,992 @@
         <v>50</v>
       </c>
       <c r="O80" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P80" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" s="2">
-        <v>45720</v>
+        <v>45661</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81">
-        <v>8.67</v>
+        <v>2.188</v>
       </c>
       <c r="E81">
-        <v>2.65</v>
+        <v>138</v>
       </c>
       <c r="F81">
-        <v>35</v>
+        <v>2.592</v>
       </c>
       <c r="G81">
-        <v>2.65</v>
+        <v>34.8</v>
       </c>
       <c r="H81">
-        <v>140</v>
+        <v>8.703999999999999</v>
       </c>
       <c r="I81">
-        <v>2.2</v>
+        <v>2.626</v>
       </c>
       <c r="J81">
-        <v>3.89761489237929</v>
+        <v>1.233766233766234</v>
       </c>
       <c r="K81" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L81" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N81" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O81" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P81" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="2">
-        <v>45721</v>
+        <v>45661</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82">
-        <v>8.683333333333332</v>
+        <v>2.216666666666667</v>
       </c>
       <c r="E82">
-        <v>2.623333333333334</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F82">
-        <v>36</v>
+        <v>2.613333333333333</v>
       </c>
       <c r="G82">
-        <v>2.576666666666667</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>136.6666666666667</v>
+        <v>8.713333333333333</v>
       </c>
       <c r="I82">
-        <v>2.176666666666667</v>
+        <v>2.65</v>
       </c>
       <c r="J82">
-        <v>2.488335925349922</v>
+        <v>1.017699115044248</v>
       </c>
       <c r="K82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M82" t="s">
         <v>40</v>
       </c>
       <c r="N82" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O82" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="P82" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83" s="2">
-        <v>45721</v>
+        <v>45663</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>8.720000000000001</v>
+        <v>2.203333333333333</v>
       </c>
       <c r="E83">
-        <v>2.62</v>
+        <v>140</v>
       </c>
       <c r="F83">
-        <v>35</v>
+        <v>2.61</v>
       </c>
       <c r="G83">
-        <v>2.583333333333333</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>136.6666666666667</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I83">
-        <v>2.19</v>
+        <v>2.636666666666667</v>
       </c>
       <c r="J83">
-        <v>1.504010695187166</v>
+        <v>0.4804542476523259</v>
       </c>
       <c r="K83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N83" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O83" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="P83" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84" s="2">
-        <v>45721</v>
+        <v>45663</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>8.68</v>
+        <v>2.19</v>
       </c>
       <c r="E84">
+        <v>140</v>
+      </c>
+      <c r="F84">
         <v>2.625</v>
       </c>
-      <c r="F84">
-        <v>35</v>
-      </c>
       <c r="G84">
-        <v>2.605</v>
+        <v>35.75</v>
       </c>
       <c r="H84">
-        <v>130</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I84">
-        <v>2.175</v>
+        <v>2.61</v>
       </c>
       <c r="J84">
-        <v>1.975308641975309</v>
+        <v>1.092233009708738</v>
       </c>
       <c r="K84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L84" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O84" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P84" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" s="2">
-        <v>45722</v>
+        <v>45663</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85">
-        <v>8.69</v>
+        <v>2.226666666666667</v>
       </c>
       <c r="E85">
-        <v>2.626666666666666</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F85">
-        <v>34.66666666666666</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="G85">
-        <v>2.606666666666667</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="H85">
-        <v>140</v>
+        <v>8.683333333333334</v>
       </c>
       <c r="I85">
-        <v>2.176666666666667</v>
+        <v>2.646666666666667</v>
       </c>
       <c r="J85">
-        <v>1.757631822386679</v>
+        <v>1.60458452722063</v>
       </c>
       <c r="K85" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N85" t="s">
         <v>54</v>
       </c>
       <c r="O85" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P85" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="2">
-        <v>45722</v>
+        <v>45664</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86">
-        <v>8.713333333333333</v>
+        <v>2.215</v>
       </c>
       <c r="E86">
-        <v>2.64</v>
+        <v>135</v>
       </c>
       <c r="F86">
-        <v>35.33333333333334</v>
+        <v>2.6</v>
       </c>
       <c r="G86">
-        <v>2.59</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>133.3333333333333</v>
+        <v>8.695</v>
       </c>
       <c r="I86">
-        <v>2.203333333333334</v>
+        <v>2.635</v>
       </c>
       <c r="J86">
-        <v>1.586073500967118</v>
+        <v>1.469450889404486</v>
       </c>
       <c r="K86" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L86" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N86" t="s">
+        <v>48</v>
+      </c>
+      <c r="O86" t="s">
         <v>55</v>
       </c>
-      <c r="O86" t="s">
-        <v>64</v>
-      </c>
       <c r="P86" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87" s="2">
-        <v>45722</v>
+        <v>45664</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>8.666666666666666</v>
+        <v>2.196666666666667</v>
       </c>
       <c r="E87">
-        <v>2.616666666666667</v>
+        <v>140</v>
       </c>
       <c r="F87">
-        <v>35.66666666666666</v>
+        <v>2.593333333333333</v>
       </c>
       <c r="G87">
-        <v>2.623333333333334</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="H87">
-        <v>140</v>
+        <v>8.686666666666666</v>
       </c>
       <c r="I87">
-        <v>2.206666666666667</v>
+        <v>2.62</v>
       </c>
       <c r="J87">
-        <v>2.024107345917671</v>
+        <v>1.991931417044881</v>
       </c>
       <c r="K87" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O87" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P87" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88" s="2">
-        <v>45723</v>
+        <v>45664</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>8.68</v>
+        <v>2.2375</v>
       </c>
       <c r="E88">
-        <v>2.61</v>
+        <v>137.5</v>
       </c>
       <c r="F88">
-        <v>36</v>
+        <v>2.5875</v>
       </c>
       <c r="G88">
-        <v>2.59</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>146.6666666666667</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="I88">
-        <v>2.2</v>
+        <v>2.6425</v>
       </c>
       <c r="J88">
-        <v>1.994750656167979</v>
+        <v>1.34850400337126</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N88" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O88" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P88" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" s="2">
-        <v>45723</v>
+        <v>45665</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D89">
-        <v>8.76</v>
+        <v>2.213333333333333</v>
       </c>
       <c r="E89">
-        <v>2.65</v>
+        <v>140</v>
       </c>
       <c r="F89">
-        <v>35</v>
+        <v>2.62</v>
       </c>
       <c r="G89">
-        <v>2.593333333333333</v>
+        <v>35.66666666666666</v>
       </c>
       <c r="H89">
-        <v>130</v>
+        <v>8.66</v>
       </c>
       <c r="I89">
-        <v>2.19</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="J89">
-        <v>1.272396780057128</v>
+        <v>1.072124756335283</v>
       </c>
       <c r="K89" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L89" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M89" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N89" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O89" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" s="2">
-        <v>45723</v>
+        <v>45665</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>8.65</v>
+        <v>2.18</v>
       </c>
       <c r="E90">
-        <v>2.64</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F90">
-        <v>36.5</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="G90">
-        <v>2.64</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>130</v>
+        <v>8.66</v>
       </c>
       <c r="I90">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="J90">
-        <v>1.710654936461388</v>
+        <v>0.9163802978235968</v>
       </c>
       <c r="K90" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L90" t="s">
         <v>31</v>
       </c>
       <c r="M90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N90" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O90" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P90" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91" s="2">
-        <v>45724</v>
+        <v>45665</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>8.69</v>
+        <v>2.186666666666667</v>
       </c>
       <c r="E91">
-        <v>2.623333333333333</v>
+        <v>140</v>
       </c>
       <c r="F91">
-        <v>33.66666666666666</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="G91">
-        <v>2.593333333333333</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H91">
-        <v>133.3333333333333</v>
+        <v>8.696666666666665</v>
       </c>
       <c r="I91">
-        <v>2.166666666666667</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="J91">
-        <v>2.530917457578372</v>
+        <v>1.026490066225165</v>
       </c>
       <c r="K91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M91" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N91" t="s">
+        <v>48</v>
+      </c>
+      <c r="O91" t="s">
         <v>55</v>
       </c>
-      <c r="O91" t="s">
-        <v>64</v>
-      </c>
       <c r="P91" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B92" s="2">
-        <v>45724</v>
+        <v>45666</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92">
-        <v>8.720000000000001</v>
+        <v>2.176666666666667</v>
       </c>
       <c r="E92">
-        <v>2.65</v>
+        <v>140</v>
       </c>
       <c r="F92">
-        <v>33</v>
+        <v>2.626666666666667</v>
       </c>
       <c r="G92">
-        <v>2.61</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>130</v>
+        <v>8.683333333333332</v>
       </c>
       <c r="I92">
-        <v>2.19</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="J92">
-        <v>2.106318956870612</v>
+        <v>0.9305873379099924</v>
       </c>
       <c r="K92" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N92" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O92" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P92" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B93" s="2">
-        <v>45724</v>
+        <v>45666</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>8.66</v>
+        <v>2.2025</v>
       </c>
       <c r="E93">
-        <v>2.63</v>
+        <v>140</v>
       </c>
       <c r="F93">
-        <v>35</v>
+        <v>2.6175</v>
       </c>
       <c r="G93">
-        <v>2.6</v>
+        <v>35.75</v>
       </c>
       <c r="H93">
-        <v>130</v>
+        <v>8.65</v>
       </c>
       <c r="I93">
-        <v>2.18</v>
+        <v>2.605</v>
       </c>
       <c r="J93">
-        <v>0.1390820584144645</v>
+        <v>4.887218045112782</v>
       </c>
       <c r="K93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L93" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M93" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N93" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O93" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P93" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" s="2">
-        <v>45725</v>
+        <v>45666</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94">
-        <v>8.68</v>
+        <v>2.2</v>
       </c>
       <c r="E94">
-        <v>2.62</v>
+        <v>137.5</v>
       </c>
       <c r="F94">
-        <v>34.5</v>
+        <v>2.5775</v>
       </c>
       <c r="G94">
-        <v>2.595</v>
+        <v>35.25</v>
       </c>
       <c r="H94">
-        <v>130</v>
+        <v>8.6675</v>
       </c>
       <c r="I94">
-        <v>2.17</v>
+        <v>2.6275</v>
       </c>
       <c r="J94">
-        <v>1.13421550094518</v>
+        <v>0.8469324519727329</v>
       </c>
       <c r="K94" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M94" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O94" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P94" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B95" s="2">
-        <v>45726</v>
+        <v>45667</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D95">
-        <v>8.699999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="E95">
-        <v>2.606666666666667</v>
+        <v>145</v>
       </c>
       <c r="F95">
-        <v>34.33333333333334</v>
+        <v>2.63</v>
       </c>
       <c r="G95">
-        <v>2.596666666666667</v>
+        <v>36.25</v>
       </c>
       <c r="H95">
-        <v>130</v>
+        <v>8.67</v>
       </c>
       <c r="I95">
-        <v>2.19</v>
+        <v>2.64</v>
       </c>
       <c r="J95">
-        <v>2.335387609471294</v>
+        <v>1.672445441566388</v>
       </c>
       <c r="K95" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M95" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N95" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O95" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P95" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96" s="2">
-        <v>45726</v>
+        <v>45667</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96">
-        <v>8.720000000000001</v>
+        <v>2.205</v>
       </c>
       <c r="E96">
-        <v>2.61</v>
+        <v>140</v>
       </c>
       <c r="F96">
-        <v>33.5</v>
+        <v>2.64</v>
       </c>
       <c r="G96">
-        <v>2.63</v>
+        <v>36.5</v>
       </c>
       <c r="H96">
-        <v>130</v>
+        <v>8.675000000000001</v>
       </c>
       <c r="I96">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="J96">
-        <v>1.034712950600801</v>
+        <v>2.164137155705452</v>
       </c>
       <c r="K96" t="s">
         <v>22</v>
       </c>
       <c r="L96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O96" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P96" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B97" s="2">
-        <v>45726</v>
+        <v>45667</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>8.699999999999999</v>
+        <v>2.222</v>
       </c>
       <c r="E97">
-        <v>2.65</v>
+        <v>142</v>
       </c>
       <c r="F97">
-        <v>35.66666666666666</v>
+        <v>2.598</v>
       </c>
       <c r="G97">
-        <v>2.616666666666667</v>
+        <v>35.2</v>
       </c>
       <c r="H97">
-        <v>130</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="I97">
-        <v>2.2</v>
+        <v>2.626</v>
       </c>
       <c r="J97">
-        <v>1.293210644118379</v>
+        <v>2.044470974481421</v>
       </c>
       <c r="K97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L97" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M97" t="s">
         <v>38</v>
       </c>
       <c r="N97" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O97" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P97" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" s="2">
-        <v>45727</v>
+        <v>45668</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D98">
-        <v>8.725000000000001</v>
+        <v>2.216</v>
       </c>
       <c r="E98">
-        <v>2.615</v>
+        <v>142</v>
       </c>
       <c r="F98">
-        <v>34.5</v>
+        <v>2.632</v>
       </c>
       <c r="G98">
-        <v>2.625</v>
+        <v>36.4</v>
       </c>
       <c r="H98">
-        <v>130</v>
+        <v>8.691999999999998</v>
       </c>
       <c r="I98">
-        <v>2.175</v>
+        <v>2.636</v>
       </c>
       <c r="J98">
-        <v>1.559100797679478</v>
+        <v>0.5969300739056282</v>
       </c>
       <c r="K98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M98" t="s">
+        <v>39</v>
+      </c>
+      <c r="N98" t="s">
         <v>47</v>
       </c>
-      <c r="N98" t="s">
-        <v>52</v>
-      </c>
       <c r="O98" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P98" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99" s="2">
-        <v>45727</v>
+        <v>45668</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D99">
-        <v>8.720000000000001</v>
+        <v>2.173333333333333</v>
       </c>
       <c r="E99">
-        <v>2.606666666666667</v>
+        <v>141.6666666666667</v>
       </c>
       <c r="F99">
-        <v>36</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="G99">
-        <v>2.623333333333334</v>
+        <v>35.83333333333334</v>
       </c>
       <c r="H99">
-        <v>130</v>
+        <v>8.695</v>
       </c>
       <c r="I99">
-        <v>2.186666666666667</v>
+        <v>2.586666666666666</v>
       </c>
       <c r="J99">
-        <v>1.396648044692737</v>
+        <v>1.804397270659591</v>
       </c>
       <c r="K99" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L99" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O99" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P99" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100" s="2">
-        <v>45728</v>
+        <v>45668</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D100">
-        <v>8.699999999999999</v>
+        <v>2.215</v>
       </c>
       <c r="E100">
+        <v>150</v>
+      </c>
+      <c r="F100">
         <v>2.6</v>
       </c>
-      <c r="F100">
-        <v>33.66666666666666</v>
-      </c>
       <c r="G100">
-        <v>2.6</v>
+        <v>35.5</v>
       </c>
       <c r="H100">
-        <v>130</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="I100">
-        <v>2.2</v>
+        <v>2.61</v>
       </c>
       <c r="J100">
-        <v>1.391382405745063</v>
+        <v>1.067792401291284</v>
       </c>
       <c r="K100" t="s">
         <v>18</v>
@@ -5618,1148 +5588,1148 @@
         <v>38</v>
       </c>
       <c r="N100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O100" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P100" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B101" s="2">
-        <v>45728</v>
+        <v>45670</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101">
-        <v>8.703333333333333</v>
+        <v>2.215</v>
       </c>
       <c r="E101">
-        <v>2.603333333333333</v>
+        <v>145</v>
       </c>
       <c r="F101">
-        <v>34</v>
+        <v>2.575</v>
       </c>
       <c r="G101">
-        <v>2.63</v>
+        <v>34.5</v>
       </c>
       <c r="H101">
-        <v>130</v>
+        <v>8.695</v>
       </c>
       <c r="I101">
-        <v>2.166666666666667</v>
+        <v>2.635</v>
       </c>
       <c r="J101">
-        <v>1.134175048148941</v>
+        <v>1.070281840884766</v>
       </c>
       <c r="K101" t="s">
         <v>18</v>
       </c>
       <c r="L101" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M101" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N101" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O101" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P101" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102" s="2">
-        <v>45728</v>
+        <v>45670</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D102">
-        <v>8.710000000000001</v>
+        <v>2.22</v>
       </c>
       <c r="E102">
-        <v>2.63</v>
+        <v>148</v>
       </c>
       <c r="F102">
-        <v>34.5</v>
+        <v>2.616</v>
       </c>
       <c r="G102">
-        <v>2.59</v>
+        <v>35.6</v>
       </c>
       <c r="H102">
-        <v>130</v>
+        <v>8.681999999999999</v>
       </c>
       <c r="I102">
-        <v>2.17</v>
+        <v>2.614</v>
       </c>
       <c r="J102">
-        <v>0.9929078014184397</v>
+        <v>4.576271186440678</v>
       </c>
       <c r="K102" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L102" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N102" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O102" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P102" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B103" s="2">
-        <v>45729</v>
+        <v>45671</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D103">
-        <v>8.699999999999999</v>
+        <v>2.2025</v>
       </c>
       <c r="E103">
-        <v>2.6</v>
+        <v>137.5</v>
       </c>
       <c r="F103">
-        <v>34</v>
+        <v>2.61</v>
       </c>
       <c r="G103">
-        <v>2.6</v>
+        <v>34.75</v>
       </c>
       <c r="H103">
-        <v>120</v>
+        <v>8.695</v>
       </c>
       <c r="I103">
-        <v>2.2</v>
+        <v>2.64</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1.51877133105802</v>
       </c>
       <c r="K103" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M103" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O103" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P103" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B104" s="2">
-        <v>45729</v>
+        <v>45671</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>8.705</v>
+        <v>2.192</v>
       </c>
       <c r="E104">
-        <v>2.6225</v>
+        <v>138</v>
       </c>
       <c r="F104">
-        <v>34.25</v>
+        <v>2.578</v>
       </c>
       <c r="G104">
-        <v>2.6225</v>
+        <v>34.8</v>
       </c>
       <c r="H104">
-        <v>130</v>
+        <v>8.69</v>
       </c>
       <c r="I104">
-        <v>2.1825</v>
+        <v>2.626</v>
       </c>
       <c r="J104">
-        <v>1.360201511335013</v>
+        <v>1.926507313592579</v>
       </c>
       <c r="K104" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L104" t="s">
         <v>32</v>
       </c>
       <c r="M104" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O104" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P104" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1">
+        <v>30</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45671</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105">
+        <v>2.195</v>
+      </c>
+      <c r="E105">
+        <v>135</v>
+      </c>
+      <c r="F105">
+        <v>2.635</v>
+      </c>
+      <c r="G105">
+        <v>36.25</v>
+      </c>
+      <c r="H105">
+        <v>8.672499999999999</v>
+      </c>
+      <c r="I105">
+        <v>2.6125</v>
+      </c>
+      <c r="J105">
+        <v>1.313210505684046</v>
+      </c>
+      <c r="K105" t="s">
+        <v>25</v>
+      </c>
+      <c r="L105" t="s">
         <v>31</v>
       </c>
-      <c r="B105" s="2">
-        <v>45729</v>
-      </c>
-      <c r="C105" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105">
-        <v>8.69</v>
-      </c>
-      <c r="E105">
-        <v>2.63</v>
-      </c>
-      <c r="F105">
-        <v>34.5</v>
-      </c>
-      <c r="G105">
-        <v>2.62</v>
-      </c>
-      <c r="H105">
-        <v>130</v>
-      </c>
-      <c r="I105">
-        <v>2.19</v>
-      </c>
-      <c r="J105">
-        <v>2.023809523809524</v>
-      </c>
-      <c r="K105" t="s">
-        <v>21</v>
-      </c>
-      <c r="L105" t="s">
-        <v>32</v>
-      </c>
       <c r="M105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N105" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O105" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B106" s="2">
-        <v>45732</v>
+        <v>45672</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D106">
-        <v>8.699999999999999</v>
+        <v>2.195</v>
       </c>
       <c r="E106">
-        <v>2.63</v>
+        <v>137.5</v>
       </c>
       <c r="F106">
-        <v>34</v>
+        <v>2.625</v>
       </c>
       <c r="G106">
-        <v>2.6</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>120</v>
+        <v>8.695</v>
       </c>
       <c r="I106">
-        <v>2.17</v>
+        <v>2.605</v>
       </c>
       <c r="J106">
-        <v>1.226415094339623</v>
+        <v>0.624783061437001</v>
       </c>
       <c r="K106" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L106" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M106" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N106" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O106" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P106" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B107" s="2">
-        <v>45732</v>
+        <v>45672</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107">
-        <v>8.720000000000001</v>
+        <v>2.2225</v>
       </c>
       <c r="E107">
-        <v>2.65</v>
+        <v>140</v>
       </c>
       <c r="F107">
-        <v>34.5</v>
+        <v>2.5825</v>
       </c>
       <c r="G107">
-        <v>2.595</v>
+        <v>35.75</v>
       </c>
       <c r="H107">
-        <v>130</v>
+        <v>8.6625</v>
       </c>
       <c r="I107">
-        <v>2.2</v>
+        <v>2.6475</v>
       </c>
       <c r="J107">
-        <v>1.527907701902089</v>
+        <v>2.281035239070039</v>
       </c>
       <c r="K107" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L107" t="s">
         <v>32</v>
       </c>
       <c r="M107" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N107" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O107" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P107" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B108" s="2">
-        <v>45732</v>
+        <v>45672</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D108">
-        <v>8.69</v>
+        <v>2.2275</v>
       </c>
       <c r="E108">
-        <v>2.64</v>
+        <v>140</v>
       </c>
       <c r="F108">
-        <v>35</v>
+        <v>2.625</v>
       </c>
       <c r="G108">
-        <v>2.59</v>
+        <v>35.25</v>
       </c>
       <c r="H108">
-        <v>130</v>
+        <v>8.6275</v>
       </c>
       <c r="I108">
-        <v>2.19</v>
+        <v>2.6</v>
       </c>
       <c r="J108">
-        <v>2.139737991266375</v>
+        <v>0.9594882729211087</v>
       </c>
       <c r="K108" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L108" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N108" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O108" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P108" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B109" s="2">
-        <v>45733</v>
+        <v>45673</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D109">
-        <v>8.720000000000001</v>
+        <v>2.203333333333334</v>
       </c>
       <c r="E109">
-        <v>2.65</v>
+        <v>140</v>
       </c>
       <c r="F109">
-        <v>35</v>
+        <v>2.613333333333333</v>
       </c>
       <c r="G109">
-        <v>2.6</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="H109">
-        <v>130</v>
+        <v>8.653333333333334</v>
       </c>
       <c r="I109">
-        <v>2.19</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="J109">
-        <v>1.994933502216593</v>
+        <v>1.943462897526502</v>
       </c>
       <c r="K109" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L109" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O109" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P109" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B110" s="2">
-        <v>45733</v>
+        <v>45673</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110">
-        <v>8.720000000000001</v>
+        <v>2.192</v>
       </c>
       <c r="E110">
-        <v>2.63</v>
+        <v>138</v>
       </c>
       <c r="F110">
-        <v>34</v>
+        <v>2.596</v>
       </c>
       <c r="G110">
-        <v>2.583333333333333</v>
+        <v>35.8</v>
       </c>
       <c r="H110">
-        <v>130</v>
+        <v>8.648</v>
       </c>
       <c r="I110">
-        <v>2.18</v>
+        <v>2.626</v>
       </c>
       <c r="J110">
-        <v>0.7411193457705085</v>
+        <v>1.891944606982641</v>
       </c>
       <c r="K110" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L110" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N110" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O110" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P110" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B111" s="2">
-        <v>45733</v>
+        <v>45673</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D111">
-        <v>8.74</v>
+        <v>2.193333333333333</v>
       </c>
       <c r="E111">
-        <v>2.63</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F111">
-        <v>34.5</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="G111">
-        <v>2.585</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H111">
-        <v>130</v>
+        <v>8.636666666666667</v>
       </c>
       <c r="I111">
-        <v>2.21</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="J111">
-        <v>2.02608936996947</v>
+        <v>0.7414064255223545</v>
       </c>
       <c r="K111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M111" t="s">
+        <v>42</v>
+      </c>
+      <c r="N111" t="s">
         <v>48</v>
       </c>
-      <c r="N111" t="s">
-        <v>58</v>
-      </c>
       <c r="O111" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P111" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B112" s="2">
-        <v>45734</v>
+        <v>45674</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D112">
-        <v>8.710000000000001</v>
+        <v>2.1975</v>
       </c>
       <c r="E112">
-        <v>2.65</v>
+        <v>137.5</v>
       </c>
       <c r="F112">
-        <v>34</v>
+        <v>2.62</v>
       </c>
       <c r="G112">
-        <v>2.58</v>
+        <v>34.75</v>
       </c>
       <c r="H112">
-        <v>140</v>
+        <v>8.6525</v>
       </c>
       <c r="I112">
-        <v>2.22</v>
+        <v>2.61</v>
       </c>
       <c r="J112">
-        <v>0.9053497942386831</v>
+        <v>0.7196071791398577</v>
       </c>
       <c r="K112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L112" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N112" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P112" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B113" s="2">
-        <v>45734</v>
+        <v>45674</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113">
-        <v>8.699999999999999</v>
+        <v>2.196</v>
       </c>
       <c r="E113">
-        <v>2.6</v>
+        <v>134</v>
       </c>
       <c r="F113">
-        <v>35.2</v>
+        <v>2.594</v>
       </c>
       <c r="G113">
-        <v>2.604</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>130</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="I113">
-        <v>2.196</v>
+        <v>2.642</v>
       </c>
       <c r="J113">
-        <v>1.799228901899186</v>
+        <v>2.065299924069856</v>
       </c>
       <c r="K113" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L113" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M113" t="s">
         <v>38</v>
       </c>
       <c r="N113" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O113" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P113" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B114" s="2">
-        <v>45734</v>
+        <v>45674</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D114">
-        <v>8.725000000000001</v>
+        <v>2.215</v>
       </c>
       <c r="E114">
-        <v>2.645</v>
+        <v>130</v>
       </c>
       <c r="F114">
-        <v>34</v>
+        <v>2.63</v>
       </c>
       <c r="G114">
-        <v>2.595</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>140</v>
+        <v>8.66</v>
       </c>
       <c r="I114">
-        <v>2.195</v>
+        <v>2.635</v>
       </c>
       <c r="J114">
-        <v>1.098376313276027</v>
+        <v>1.609195402298851</v>
       </c>
       <c r="K114" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L114" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M114" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N114" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P114" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B115" s="2">
-        <v>45735</v>
+        <v>45675</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D115">
-        <v>8.720000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="E115">
-        <v>2.63</v>
+        <v>132</v>
       </c>
       <c r="F115">
-        <v>33.5</v>
+        <v>2.624</v>
       </c>
       <c r="G115">
-        <v>2.54</v>
+        <v>34.6</v>
       </c>
       <c r="H115">
-        <v>135</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="I115">
-        <v>2.21</v>
+        <v>2.628</v>
       </c>
       <c r="J115">
-        <v>1.96877121520706</v>
+        <v>0.7667224817132282</v>
       </c>
       <c r="K115" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N115" t="s">
+        <v>50</v>
+      </c>
+      <c r="O115" t="s">
         <v>61</v>
       </c>
-      <c r="O115" t="s">
-        <v>64</v>
-      </c>
       <c r="P115" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B116" s="2">
-        <v>45735</v>
+        <v>45675</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116">
-        <v>8.699999999999999</v>
+        <v>2.2025</v>
       </c>
       <c r="E116">
-        <v>2.6</v>
+        <v>135</v>
       </c>
       <c r="F116">
-        <v>33.33333333333334</v>
+        <v>2.5875</v>
       </c>
       <c r="G116">
-        <v>2.57</v>
+        <v>34.5</v>
       </c>
       <c r="H116">
-        <v>140</v>
+        <v>8.655000000000001</v>
       </c>
       <c r="I116">
-        <v>2.2</v>
+        <v>2.6425</v>
       </c>
       <c r="J116">
-        <v>0.9922555663117134</v>
+        <v>1.349188200320146</v>
       </c>
       <c r="K116" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L116" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N116" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P116" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B117" s="2">
-        <v>45735</v>
+        <v>45675</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D117">
-        <v>8.779999999999999</v>
+        <v>2.205</v>
       </c>
       <c r="E117">
-        <v>2.64</v>
+        <v>130</v>
       </c>
       <c r="F117">
-        <v>34</v>
+        <v>2.595</v>
       </c>
       <c r="G117">
-        <v>2.595</v>
+        <v>34.5</v>
       </c>
       <c r="H117">
-        <v>140</v>
+        <v>8.635</v>
       </c>
       <c r="I117">
-        <v>2.22</v>
+        <v>2.61</v>
       </c>
       <c r="J117">
-        <v>1.55310621242485</v>
+        <v>0.4211332312404288</v>
       </c>
       <c r="K117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L117" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M117" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N117" t="s">
         <v>50</v>
       </c>
       <c r="O117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P117" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B118" s="2">
-        <v>45736</v>
+        <v>45677</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D118">
-        <v>8.69</v>
+        <v>2.19</v>
       </c>
       <c r="E118">
-        <v>2.65</v>
+        <v>130</v>
       </c>
       <c r="F118">
-        <v>33.5</v>
+        <v>2.64</v>
       </c>
       <c r="G118">
-        <v>2.6</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>130</v>
+        <v>8.675000000000001</v>
       </c>
       <c r="I118">
-        <v>2.24</v>
+        <v>2.625</v>
       </c>
       <c r="J118">
-        <v>1.130820399113082</v>
+        <v>0.3838174273858921</v>
       </c>
       <c r="K118" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L118" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N118" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O118" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P118" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B119" s="2">
-        <v>45736</v>
+        <v>45677</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119">
-        <v>8.705</v>
+        <v>2.17</v>
       </c>
       <c r="E119">
-        <v>2.615</v>
+        <v>130</v>
       </c>
       <c r="F119">
-        <v>34.5</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="G119">
-        <v>2.6</v>
+        <v>36</v>
       </c>
       <c r="H119">
-        <v>130</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I119">
-        <v>2.195</v>
+        <v>2.63</v>
       </c>
       <c r="J119">
-        <v>0.9649848359525779</v>
+        <v>2.595752405155201</v>
       </c>
       <c r="K119" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L119" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M119" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N119" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O119" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P119" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B120" s="2">
-        <v>45736</v>
+        <v>45677</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D120">
-        <v>8.74</v>
+        <v>2.203333333333333</v>
       </c>
       <c r="E120">
-        <v>2.64</v>
+        <v>130</v>
       </c>
       <c r="F120">
-        <v>35</v>
+        <v>2.596666666666667</v>
       </c>
       <c r="G120">
-        <v>2.6</v>
+        <v>36</v>
       </c>
       <c r="H120">
-        <v>130</v>
+        <v>8.69</v>
       </c>
       <c r="I120">
-        <v>2.21</v>
+        <v>2.636666666666667</v>
       </c>
       <c r="J120">
-        <v>1.007326007326007</v>
+        <v>1.972963098282791</v>
       </c>
       <c r="K120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L120" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M120" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N120" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O120" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P120" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B121" s="2">
-        <v>45737</v>
+        <v>45678</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D121">
-        <v>8.715</v>
+        <v>2.19</v>
       </c>
       <c r="E121">
-        <v>2.63</v>
+        <v>135</v>
       </c>
       <c r="F121">
-        <v>33</v>
+        <v>2.62</v>
       </c>
       <c r="G121">
-        <v>2.56</v>
+        <v>35.5</v>
       </c>
       <c r="H121">
-        <v>125</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I121">
-        <v>2.175</v>
+        <v>2.61</v>
       </c>
       <c r="J121">
-        <v>2.530541012216405</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="K121" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N121" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="O121" t="s">
+        <v>56</v>
+      </c>
+      <c r="P121" t="s">
         <v>69</v>
-      </c>
-      <c r="P121" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B122" s="2">
-        <v>45737</v>
+        <v>45678</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122">
-        <v>8.720000000000001</v>
+        <v>2.2025</v>
       </c>
       <c r="E122">
-        <v>2.63</v>
+        <v>132.5</v>
       </c>
       <c r="F122">
-        <v>34</v>
+        <v>2.6025</v>
       </c>
       <c r="G122">
-        <v>2.58</v>
+        <v>34.75</v>
       </c>
       <c r="H122">
-        <v>130</v>
+        <v>8.6625</v>
       </c>
       <c r="I122">
-        <v>2.18</v>
+        <v>2.6275</v>
       </c>
       <c r="J122">
-        <v>0.7109995817649519</v>
+        <v>2.706378348973208</v>
       </c>
       <c r="K122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L122" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N122" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O122" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P122" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B123" s="2">
-        <v>45737</v>
+        <v>45678</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D123">
-        <v>8.699999999999999</v>
+        <v>2.2075</v>
       </c>
       <c r="E123">
+        <v>140</v>
+      </c>
+      <c r="F123">
         <v>2.6</v>
       </c>
-      <c r="F123">
-        <v>34.5</v>
-      </c>
       <c r="G123">
-        <v>2.605</v>
+        <v>35.25</v>
       </c>
       <c r="H123">
-        <v>130</v>
+        <v>8.702500000000001</v>
       </c>
       <c r="I123">
-        <v>2.2</v>
+        <v>2.6475</v>
       </c>
       <c r="J123">
-        <v>0.5593803786574871</v>
+        <v>1.154586273252085</v>
       </c>
       <c r="K123" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L123" t="s">
         <v>32</v>
@@ -6768,601 +6738,601 @@
         <v>38</v>
       </c>
       <c r="N123" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O123" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P123" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B124" s="2">
-        <v>45738</v>
+        <v>45679</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D124">
-        <v>8.727500000000001</v>
+        <v>2.186666666666667</v>
       </c>
       <c r="E124">
-        <v>2.63</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="F124">
-        <v>33.75</v>
+        <v>2.626666666666667</v>
       </c>
       <c r="G124">
-        <v>2.5925</v>
+        <v>35.66666666666666</v>
       </c>
       <c r="H124">
-        <v>132.5</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I124">
-        <v>2.185</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="J124">
-        <v>0.8337587204355964</v>
+        <v>1.705282669138091</v>
       </c>
       <c r="K124" t="s">
         <v>21</v>
       </c>
       <c r="L124" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M124" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N124" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O124" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P124" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B125" s="2">
-        <v>45738</v>
+        <v>45679</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125">
-        <v>8.713333333333333</v>
+        <v>2.166</v>
       </c>
       <c r="E125">
-        <v>2.6</v>
+        <v>134</v>
       </c>
       <c r="F125">
-        <v>34.66666666666666</v>
+        <v>2.614</v>
       </c>
       <c r="G125">
-        <v>2.576666666666667</v>
+        <v>35.2</v>
       </c>
       <c r="H125">
-        <v>130</v>
+        <v>8.742000000000001</v>
       </c>
       <c r="I125">
-        <v>2.18</v>
+        <v>2.616</v>
       </c>
       <c r="J125">
-        <v>1.100762066045724</v>
+        <v>2.109541319914844</v>
       </c>
       <c r="K125" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L125" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N125" t="s">
+        <v>48</v>
+      </c>
+      <c r="O125" t="s">
         <v>58</v>
       </c>
-      <c r="O125" t="s">
-        <v>66</v>
-      </c>
       <c r="P125" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B126" s="2">
-        <v>45740</v>
+        <v>45679</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126">
-        <v>8.705</v>
+        <v>2.183333333333333</v>
       </c>
       <c r="E126">
-        <v>2.615</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F126">
-        <v>33</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="G126">
-        <v>2.585</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H126">
-        <v>125</v>
+        <v>8.743333333333334</v>
       </c>
       <c r="I126">
-        <v>2.19</v>
+        <v>2.61</v>
       </c>
       <c r="J126">
-        <v>0.4680955900468096</v>
+        <v>1.058591826686361</v>
       </c>
       <c r="K126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M126" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N126" t="s">
+        <v>48</v>
+      </c>
+      <c r="O126" t="s">
         <v>58</v>
       </c>
-      <c r="O126" t="s">
+      <c r="P126" t="s">
         <v>69</v>
-      </c>
-      <c r="P126" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B127" s="2">
-        <v>45740</v>
+        <v>45680</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D127">
-        <v>8.717500000000001</v>
+        <v>2.173333333333333</v>
       </c>
       <c r="E127">
-        <v>2.645</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="F127">
-        <v>34.75</v>
+        <v>2.62</v>
       </c>
       <c r="G127">
-        <v>2.59</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>130</v>
+        <v>8.696666666666667</v>
       </c>
       <c r="I127">
-        <v>2.1875</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="J127">
-        <v>2.644569816643159</v>
+        <v>1.341312422616591</v>
       </c>
       <c r="K127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L127" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N127" t="s">
+        <v>48</v>
+      </c>
+      <c r="O127" t="s">
         <v>55</v>
       </c>
-      <c r="O127" t="s">
-        <v>66</v>
-      </c>
       <c r="P127" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B128" s="2">
-        <v>45740</v>
+        <v>45680</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D128">
-        <v>8.710000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="E128">
-        <v>2.63</v>
+        <v>132</v>
       </c>
       <c r="F128">
-        <v>35</v>
+        <v>2.626</v>
       </c>
       <c r="G128">
-        <v>2.606666666666667</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>130</v>
+        <v>8.664</v>
       </c>
       <c r="I128">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="J128">
-        <v>1.426718547341115</v>
+        <v>0.6910788009334051</v>
       </c>
       <c r="K128" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L128" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O128" t="s">
+        <v>60</v>
+      </c>
+      <c r="P128" t="s">
         <v>66</v>
-      </c>
-      <c r="P128" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B129" s="2">
-        <v>45741</v>
+        <v>45680</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D129">
-        <v>8.699999999999999</v>
+        <v>2.196666666666667</v>
       </c>
       <c r="E129">
-        <v>2.61</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="F129">
-        <v>34</v>
+        <v>2.596666666666667</v>
       </c>
       <c r="G129">
-        <v>2.6</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="H129">
-        <v>135</v>
+        <v>8.716666666666667</v>
       </c>
       <c r="I129">
-        <v>2.18</v>
+        <v>2.626666666666667</v>
       </c>
       <c r="J129">
-        <v>1.534653465346535</v>
+        <v>1.520086862106406</v>
       </c>
       <c r="K129" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L129" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M129" t="s">
         <v>38</v>
       </c>
       <c r="N129" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O129" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P129" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1">
+        <v>55</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45681</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130">
+        <v>2.18</v>
+      </c>
+      <c r="E130">
+        <v>130</v>
+      </c>
+      <c r="F130">
+        <v>2.626666666666667</v>
+      </c>
+      <c r="G130">
+        <v>35.66666666666666</v>
+      </c>
+      <c r="H130">
+        <v>8.713333333333333</v>
+      </c>
+      <c r="I130">
+        <v>2.626666666666667</v>
+      </c>
+      <c r="J130">
+        <v>1.385390428211587</v>
+      </c>
+      <c r="K130" t="s">
+        <v>20</v>
+      </c>
+      <c r="L130" t="s">
+        <v>37</v>
+      </c>
+      <c r="M130" t="s">
+        <v>42</v>
+      </c>
+      <c r="N130" t="s">
+        <v>49</v>
+      </c>
+      <c r="O130" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="2">
-        <v>45741</v>
-      </c>
-      <c r="C130" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="E130">
-        <v>2.6</v>
-      </c>
-      <c r="F130">
-        <v>34.25</v>
-      </c>
-      <c r="G130">
-        <v>2.5825</v>
-      </c>
-      <c r="H130">
-        <v>127.5</v>
-      </c>
-      <c r="I130">
-        <v>2.15</v>
-      </c>
-      <c r="J130">
-        <v>1.38568129330254</v>
-      </c>
-      <c r="K130" t="s">
-        <v>18</v>
-      </c>
-      <c r="L130" t="s">
-        <v>32</v>
-      </c>
-      <c r="M130" t="s">
-        <v>38</v>
-      </c>
-      <c r="N130" t="s">
-        <v>58</v>
-      </c>
-      <c r="O130" t="s">
-        <v>70</v>
-      </c>
       <c r="P130" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B131" s="2">
-        <v>45741</v>
+        <v>45681</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D131">
-        <v>8.699999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="E131">
+        <v>140</v>
+      </c>
+      <c r="F131">
+        <v>2.633333333333333</v>
+      </c>
+      <c r="G131">
+        <v>36</v>
+      </c>
+      <c r="H131">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="I131">
         <v>2.6</v>
       </c>
-      <c r="F131">
-        <v>34.66666666666666</v>
-      </c>
-      <c r="G131">
-        <v>2.643333333333333</v>
-      </c>
-      <c r="H131">
-        <v>140</v>
-      </c>
-      <c r="I131">
-        <v>2.15</v>
-      </c>
       <c r="J131">
-        <v>1.667042126605091</v>
+        <v>1.331802525832377</v>
       </c>
       <c r="K131" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N131" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O131" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P131" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B132" s="2">
-        <v>45742</v>
+        <v>45681</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D132">
-        <v>8.65</v>
+        <v>2.1925</v>
       </c>
       <c r="E132">
-        <v>2.65</v>
+        <v>135</v>
       </c>
       <c r="F132">
-        <v>34</v>
+        <v>2.59</v>
       </c>
       <c r="G132">
-        <v>2.58</v>
+        <v>35.25</v>
       </c>
       <c r="H132">
-        <v>130</v>
+        <v>8.665000000000001</v>
       </c>
       <c r="I132">
-        <v>2.15</v>
+        <v>2.6025</v>
       </c>
       <c r="J132">
-        <v>2.986111111111111</v>
+        <v>1.976744186046512</v>
       </c>
       <c r="K132" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L132" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N132" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O132" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P132" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B133" s="2">
-        <v>45742</v>
+        <v>45682</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D133">
-        <v>8.666666666666666</v>
+        <v>2.17</v>
       </c>
       <c r="E133">
-        <v>2.633333333333333</v>
+        <v>135</v>
       </c>
       <c r="F133">
-        <v>35.66666666666666</v>
+        <v>2.63</v>
       </c>
       <c r="G133">
-        <v>2.61</v>
+        <v>35.5</v>
       </c>
       <c r="H133">
-        <v>140</v>
+        <v>8.705</v>
       </c>
       <c r="I133">
-        <v>2.15</v>
+        <v>2.62</v>
       </c>
       <c r="J133">
-        <v>1.929530201342282</v>
+        <v>1.533219761499148</v>
       </c>
       <c r="K133" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N133" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O133" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P133" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B134" s="2">
-        <v>45742</v>
+        <v>45682</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D134">
-        <v>8.699999999999999</v>
+        <v>2.185</v>
       </c>
       <c r="E134">
-        <v>2.6</v>
+        <v>132.5</v>
       </c>
       <c r="F134">
-        <v>34.5</v>
+        <v>2.62</v>
       </c>
       <c r="G134">
-        <v>2.625</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>130</v>
+        <v>8.6875</v>
       </c>
       <c r="I134">
-        <v>2.15</v>
+        <v>2.6275</v>
       </c>
       <c r="J134">
-        <v>4.52991452991453</v>
+        <v>2.206896551724138</v>
       </c>
       <c r="K134" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L134" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O134" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P134" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B135" s="2">
-        <v>45743</v>
+        <v>45682</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D135">
-        <v>8.710000000000001</v>
+        <v>2.195</v>
       </c>
       <c r="E135">
-        <v>2.61</v>
+        <v>135</v>
       </c>
       <c r="F135">
-        <v>33</v>
+        <v>2.5925</v>
       </c>
       <c r="G135">
-        <v>2.57</v>
+        <v>35.75</v>
       </c>
       <c r="H135">
-        <v>130</v>
+        <v>8.702500000000001</v>
       </c>
       <c r="I135">
-        <v>2.17</v>
+        <v>2.6475</v>
       </c>
       <c r="J135">
-        <v>1.006711409395973</v>
+        <v>0.8668242710795903</v>
       </c>
       <c r="K135" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M135" t="s">
         <v>41</v>
@@ -7371,510 +7341,610 @@
         <v>53</v>
       </c>
       <c r="O135" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P135" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B136" s="2">
-        <v>45743</v>
+        <v>45684</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136">
-        <v>8.67</v>
+        <v>2.18</v>
       </c>
       <c r="E136">
-        <v>2.6025</v>
+        <v>132.5</v>
       </c>
       <c r="F136">
+        <v>2.5925</v>
+      </c>
+      <c r="G136">
         <v>35.75</v>
       </c>
-      <c r="G136">
-        <v>2.6225</v>
-      </c>
       <c r="H136">
-        <v>130</v>
+        <v>8.6875</v>
       </c>
       <c r="I136">
-        <v>2.1675</v>
+        <v>2.61</v>
       </c>
       <c r="J136">
-        <v>1.446186634190897</v>
+        <v>1.818512456810329</v>
       </c>
       <c r="K136" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L136" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O136" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P136" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B137" s="2">
-        <v>45743</v>
+        <v>45684</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>8.67</v>
+        <v>2.2</v>
       </c>
       <c r="E137">
+        <v>135</v>
+      </c>
+      <c r="F137">
+        <v>2.5775</v>
+      </c>
+      <c r="G137">
+        <v>35.5</v>
+      </c>
+      <c r="H137">
+        <v>8.675000000000001</v>
+      </c>
+      <c r="I137">
         <v>2.63</v>
       </c>
-      <c r="F137">
-        <v>33</v>
-      </c>
-      <c r="G137">
-        <v>2.57</v>
-      </c>
-      <c r="H137">
-        <v>130</v>
-      </c>
-      <c r="I137">
-        <v>2.19</v>
-      </c>
       <c r="J137">
-        <v>3.48605577689243</v>
+        <v>1.592233009708738</v>
       </c>
       <c r="K137" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M137" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N137" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O137" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P137" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B138" s="2">
-        <v>45744</v>
+        <v>45685</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D138">
-        <v>8.67</v>
+        <v>2.1975</v>
       </c>
       <c r="E138">
-        <v>2.63</v>
+        <v>135</v>
       </c>
       <c r="F138">
-        <v>32.5</v>
+        <v>2.6275</v>
       </c>
       <c r="G138">
-        <v>2.63</v>
+        <v>35.25</v>
       </c>
       <c r="H138">
-        <v>125</v>
+        <v>8.6975</v>
       </c>
       <c r="I138">
-        <v>2.19</v>
+        <v>2.615</v>
       </c>
       <c r="J138">
-        <v>1.020408163265306</v>
+        <v>1.238660153524075</v>
       </c>
       <c r="K138" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L138" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N138" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O138" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="P138" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B139" s="2">
-        <v>45744</v>
+        <v>45685</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139">
-        <v>8.692499999999999</v>
+        <v>2.168</v>
       </c>
       <c r="E139">
-        <v>2.615</v>
+        <v>140</v>
       </c>
       <c r="F139">
-        <v>35.75</v>
+        <v>2.602</v>
       </c>
       <c r="G139">
-        <v>2.62</v>
+        <v>35.6</v>
       </c>
       <c r="H139">
-        <v>130</v>
+        <v>8.724</v>
       </c>
       <c r="I139">
-        <v>2.1775</v>
+        <v>2.612</v>
       </c>
       <c r="J139">
-        <v>0.3602848764139087</v>
+        <v>0.7376283846872083</v>
       </c>
       <c r="K139" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M139" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N139" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O139" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P139" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B140" s="2">
-        <v>45744</v>
+        <v>45685</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D140">
-        <v>8.68</v>
+        <v>2.18</v>
       </c>
       <c r="E140">
-        <v>2.625</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="F140">
-        <v>36</v>
+        <v>2.59</v>
       </c>
       <c r="G140">
-        <v>2.6</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H140">
-        <v>130</v>
+        <v>8.73</v>
       </c>
       <c r="I140">
-        <v>2.21</v>
+        <v>2.63</v>
       </c>
       <c r="J140">
-        <v>1.724137931034483</v>
+        <v>3.537906137184116</v>
       </c>
       <c r="K140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O140" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P140" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B141" s="2">
-        <v>45745</v>
+        <v>45686</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D141">
-        <v>8.68</v>
+        <v>2.176666666666667</v>
       </c>
       <c r="E141">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="F141">
         <v>2.613333333333333</v>
       </c>
-      <c r="F141">
-        <v>35.5</v>
-      </c>
       <c r="G141">
-        <v>2.583333333333333</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H141">
-        <v>135</v>
+        <v>8.69</v>
       </c>
       <c r="I141">
-        <v>2.19</v>
+        <v>2.626666666666666</v>
       </c>
       <c r="J141">
-        <v>2.122498483929654</v>
+        <v>1.973568281938326</v>
       </c>
       <c r="K141" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L141" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M141" t="s">
         <v>40</v>
       </c>
       <c r="N141" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O141" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P141" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B142" s="2">
-        <v>45745</v>
+        <v>45686</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142">
-        <v>8.667142857142858</v>
+        <v>2.1625</v>
       </c>
       <c r="E142">
-        <v>2.6</v>
+        <v>140</v>
       </c>
       <c r="F142">
-        <v>35.85714285714285</v>
+        <v>2.605</v>
       </c>
       <c r="G142">
-        <v>2.618571428571429</v>
+        <v>36</v>
       </c>
       <c r="H142">
-        <v>132.8571428571429</v>
+        <v>8.7075</v>
       </c>
       <c r="I142">
-        <v>2.191428571428571</v>
+        <v>2.6075</v>
       </c>
       <c r="J142">
-        <v>0.1603563474387528</v>
+        <v>1.652644230769231</v>
       </c>
       <c r="K142" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L142" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M142" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N142" t="s">
+        <v>53</v>
+      </c>
+      <c r="O142" t="s">
         <v>56</v>
       </c>
-      <c r="O142" t="s">
-        <v>64</v>
-      </c>
       <c r="P142" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B143" s="2">
-        <v>45746</v>
+        <v>45686</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D143">
-        <v>8.68</v>
+        <v>2.205</v>
       </c>
       <c r="E143">
-        <v>2.63</v>
+        <v>135</v>
       </c>
       <c r="F143">
-        <v>35</v>
+        <v>2.5825</v>
       </c>
       <c r="G143">
-        <v>2.6</v>
+        <v>35.5</v>
       </c>
       <c r="H143">
-        <v>130</v>
+        <v>8.69</v>
       </c>
       <c r="I143">
-        <v>2.17</v>
+        <v>2.6425</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1.889582648701939</v>
       </c>
       <c r="K143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L143" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M143" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O143" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P143" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B144" s="2">
-        <v>45746</v>
+        <v>45687</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D144">
-        <v>8.65</v>
+        <v>2.17</v>
       </c>
       <c r="E144">
-        <v>2.6</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="F144">
-        <v>34</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="G144">
-        <v>2.58</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>130</v>
+        <v>8.713333333333333</v>
       </c>
       <c r="I144">
-        <v>2.2</v>
+        <v>2.606666666666667</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>0.8305468665731852</v>
       </c>
       <c r="K144" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L144" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N144" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O144" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P144" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="1">
+        <v>70</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45687</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145">
+        <v>2.165</v>
+      </c>
+      <c r="E145">
+        <v>140</v>
+      </c>
+      <c r="F145">
+        <v>2.57</v>
+      </c>
+      <c r="G145">
+        <v>35.5</v>
+      </c>
+      <c r="H145">
+        <v>8.734999999999999</v>
+      </c>
+      <c r="I145">
+        <v>2.605</v>
+      </c>
+      <c r="J145">
+        <v>0.9621839337659431</v>
+      </c>
+      <c r="K145" t="s">
+        <v>29</v>
+      </c>
+      <c r="L145" t="s">
+        <v>32</v>
+      </c>
+      <c r="M145" t="s">
+        <v>46</v>
+      </c>
+      <c r="N145" t="s">
+        <v>49</v>
+      </c>
+      <c r="O145" t="s">
+        <v>57</v>
+      </c>
+      <c r="P145" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="1">
         <v>71</v>
       </c>
-      <c r="B145" s="2">
-        <v>45746</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B146" s="2">
+        <v>45687</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146">
+        <v>2.19</v>
+      </c>
+      <c r="E146">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="F146">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="G146">
+        <v>36</v>
+      </c>
+      <c r="H146">
+        <v>8.69</v>
+      </c>
+      <c r="I146">
+        <v>2.616666666666667</v>
+      </c>
+      <c r="J146">
+        <v>1.47008547008547</v>
+      </c>
+      <c r="K146" t="s">
+        <v>23</v>
+      </c>
+      <c r="L146" t="s">
+        <v>33</v>
+      </c>
+      <c r="M146" t="s">
+        <v>43</v>
+      </c>
+      <c r="N146" t="s">
+        <v>53</v>
+      </c>
+      <c r="O146" t="s">
+        <v>59</v>
+      </c>
+      <c r="P146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" s="1">
+        <v>72</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45688</v>
+      </c>
+      <c r="C147" t="s">
         <v>17</v>
       </c>
-      <c r="D145">
-        <v>8.68</v>
-      </c>
-      <c r="E145">
-        <v>2.62</v>
-      </c>
-      <c r="F145">
-        <v>35.5</v>
-      </c>
-      <c r="G145">
-        <v>2.57</v>
-      </c>
-      <c r="H145">
-        <v>135</v>
-      </c>
-      <c r="I145">
-        <v>2.19</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145" t="s">
-        <v>20</v>
-      </c>
-      <c r="L145" t="s">
-        <v>29</v>
-      </c>
-      <c r="M145" t="s">
-        <v>40</v>
-      </c>
-      <c r="N145" t="s">
-        <v>53</v>
-      </c>
-      <c r="O145" t="s">
-        <v>64</v>
-      </c>
-      <c r="P145" t="s">
-        <v>72</v>
+      <c r="D147">
+        <v>2.183333333333333</v>
+      </c>
+      <c r="E147">
+        <v>140</v>
+      </c>
+      <c r="F147">
+        <v>2.61</v>
+      </c>
+      <c r="G147">
+        <v>35.33333333333334</v>
+      </c>
+      <c r="H147">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="I147">
+        <v>2.626666666666666</v>
+      </c>
+      <c r="J147">
+        <v>2.819107282693813</v>
+      </c>
+      <c r="K147" t="s">
+        <v>21</v>
+      </c>
+      <c r="L147" t="s">
+        <v>32</v>
+      </c>
+      <c r="M147" t="s">
+        <v>43</v>
+      </c>
+      <c r="N147" t="s">
+        <v>48</v>
+      </c>
+      <c r="O147" t="s">
+        <v>56</v>
+      </c>
+      <c r="P147" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
